--- a/mereni/8x1_M_N_3_26/8x1_M_N_3_26_results.xlsx
+++ b/mereni/8x1_M_N_3_26/8x1_M_N_3_26_results.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\notebook\Desktop\Eyetracking\mereni\8x1_M_N_3_26\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -55,8 +60,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,17 +120,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kancelář">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,9 +176,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kancelář">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,9 +210,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,9 +245,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kancelář">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -406,18 +421,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="11" width="12.7109375" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="11" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -462,22 +479,22 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>2.942399274176015</v>
+        <v>2.9423992741760152</v>
       </c>
       <c r="E2">
-        <v>4.728936350458923</v>
+        <v>4.7289363504589232</v>
       </c>
       <c r="F2">
-        <v>0.1548631196934745</v>
+        <v>0.15486311969347449</v>
       </c>
       <c r="G2">
-        <v>0.05545772886554334</v>
+        <v>5.5457728865543343E-2</v>
       </c>
       <c r="H2">
-        <v>15.48631196934745</v>
+        <v>15.486311969347449</v>
       </c>
       <c r="I2">
-        <v>5.545772886554334</v>
+        <v>5.5457728865543343</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -489,7 +506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -527,7 +544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -565,7 +582,7 @@
         <v>22.18</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -603,7 +620,7 @@
         <v>26.23</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -614,22 +631,22 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>2.942399274176015</v>
+        <v>2.9423992741760152</v>
       </c>
       <c r="E6">
-        <v>4.728936350458923</v>
+        <v>4.7289363504589232</v>
       </c>
       <c r="F6">
-        <v>0.1548631196934745</v>
+        <v>0.15486311969347449</v>
       </c>
       <c r="G6">
-        <v>0.05545772886554334</v>
+        <v>5.5457728865543343E-2</v>
       </c>
       <c r="H6">
-        <v>15.48631196934745</v>
+        <v>15.486311969347449</v>
       </c>
       <c r="I6">
-        <v>5.545772886554334</v>
+        <v>5.5457728865543343</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
@@ -638,10 +655,10 @@
         <v>0.39</v>
       </c>
       <c r="M6">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -679,7 +696,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -693,16 +710,16 @@
         <v>6.815215660290546</v>
       </c>
       <c r="E8">
-        <v>15.22017760908568</v>
+        <v>15.220177609085679</v>
       </c>
       <c r="F8">
-        <v>0.3586955610679234</v>
+        <v>0.35869556106792339</v>
       </c>
       <c r="G8">
-        <v>0.1784918257671562</v>
+        <v>0.17849182576715619</v>
       </c>
       <c r="H8">
-        <v>35.86955610679234</v>
+        <v>35.869556106792338</v>
       </c>
       <c r="I8">
         <v>17.84918257671562</v>
@@ -714,10 +731,10 @@
         <v>38.58</v>
       </c>
       <c r="M8">
-        <v>116.76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>98.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -728,22 +745,22 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>13.6148351928655</v>
+        <v>13.614835192865501</v>
       </c>
       <c r="E9">
         <v>1.198590513648188</v>
       </c>
       <c r="F9">
-        <v>0.7165702733087103</v>
+        <v>0.71657027330871026</v>
       </c>
       <c r="G9">
-        <v>0.01405624918598508</v>
+        <v>1.405624918598508E-2</v>
       </c>
       <c r="H9">
-        <v>71.65702733087103</v>
+        <v>71.657027330871031</v>
       </c>
       <c r="I9">
-        <v>1.405624918598508</v>
+        <v>1.4056249185985079</v>
       </c>
       <c r="K9" t="s">
         <v>7</v>
@@ -755,7 +772,7 @@
         <v>30.77</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -766,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.894730790160707</v>
+        <v>3.8947307901607071</v>
       </c>
       <c r="E10">
-        <v>6.247550994189284</v>
+        <v>6.2475509941892842</v>
       </c>
       <c r="F10">
-        <v>0.2049858310610898</v>
+        <v>0.20498583106108981</v>
       </c>
       <c r="G10">
-        <v>0.07326700201320757</v>
+        <v>7.3267002013207572E-2</v>
       </c>
       <c r="H10">
         <v>20.49858310610897</v>
       </c>
       <c r="I10">
-        <v>7.326700201320757</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>7.3267002013207572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -795,25 +812,25 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.894730790160707</v>
+        <v>3.8947307901607071</v>
       </c>
       <c r="E11">
-        <v>6.247550994189284</v>
+        <v>6.2475509941892842</v>
       </c>
       <c r="F11">
-        <v>0.2049858310610898</v>
+        <v>0.20498583106108981</v>
       </c>
       <c r="G11">
-        <v>0.07326700201320757</v>
+        <v>7.3267002013207572E-2</v>
       </c>
       <c r="H11">
         <v>20.49858310610897</v>
       </c>
       <c r="I11">
-        <v>7.326700201320757</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>7.3267002013207572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -824,25 +841,25 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>3.894730790160707</v>
+        <v>3.8947307901607071</v>
       </c>
       <c r="E12">
-        <v>6.247550994189284</v>
+        <v>6.2475509941892842</v>
       </c>
       <c r="F12">
-        <v>0.2049858310610898</v>
+        <v>0.20498583106108981</v>
       </c>
       <c r="G12">
-        <v>0.07326700201320757</v>
+        <v>7.3267002013207572E-2</v>
       </c>
       <c r="H12">
         <v>20.49858310610897</v>
       </c>
       <c r="I12">
-        <v>7.326700201320757</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>7.3267002013207572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -853,25 +870,25 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>3.894730790160707</v>
+        <v>3.8947307901607071</v>
       </c>
       <c r="E13">
-        <v>6.247550994189284</v>
+        <v>6.2475509941892842</v>
       </c>
       <c r="F13">
-        <v>0.2049858310610898</v>
+        <v>0.20498583106108981</v>
       </c>
       <c r="G13">
-        <v>0.07326700201320757</v>
+        <v>7.3267002013207572E-2</v>
       </c>
       <c r="H13">
         <v>20.49858310610897</v>
       </c>
       <c r="I13">
-        <v>7.326700201320757</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>7.3267002013207572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -882,25 +899,25 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <v>15.67124617826427</v>
+        <v>15.671246178264269</v>
       </c>
       <c r="E14">
-        <v>3.991346321145031</v>
+        <v>3.9913463211450311</v>
       </c>
       <c r="F14">
-        <v>0.8248024304349618</v>
+        <v>0.82480243043496182</v>
       </c>
       <c r="G14">
-        <v>0.04680777783466328</v>
+        <v>4.6807777834663278E-2</v>
       </c>
       <c r="H14">
-        <v>82.48024304349619</v>
+        <v>82.480243043496188</v>
       </c>
       <c r="I14">
-        <v>4.680777783466327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4.6807777834663273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -911,25 +928,25 @@
         <v>3</v>
       </c>
       <c r="D15">
-        <v>15.67124617826427</v>
+        <v>15.671246178264269</v>
       </c>
       <c r="E15">
-        <v>3.991346321145031</v>
+        <v>3.9913463211450311</v>
       </c>
       <c r="F15">
-        <v>0.8248024304349618</v>
+        <v>0.82480243043496182</v>
       </c>
       <c r="G15">
-        <v>0.04680777783466328</v>
+        <v>4.6807777834663278E-2</v>
       </c>
       <c r="H15">
-        <v>82.48024304349619</v>
+        <v>82.480243043496188</v>
       </c>
       <c r="I15">
-        <v>4.680777783466327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4.6807777834663273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -940,25 +957,25 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>14.6429497155378</v>
+        <v>14.642949715537799</v>
       </c>
       <c r="E16">
         <v>0.2217274916785428</v>
       </c>
       <c r="F16">
-        <v>0.7706815639756738</v>
+        <v>0.77068156397567378</v>
       </c>
       <c r="G16">
-        <v>0.002600268264205452</v>
+        <v>2.600268264205452E-3</v>
       </c>
       <c r="H16">
-        <v>77.06815639756738</v>
+        <v>77.068156397567378</v>
       </c>
       <c r="I16">
         <v>0.2600268264205452</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -969,25 +986,25 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>14.6429497155378</v>
+        <v>14.642949715537799</v>
       </c>
       <c r="E17">
         <v>0.2217274916785428</v>
       </c>
       <c r="F17">
-        <v>0.7706815639756738</v>
+        <v>0.77068156397567378</v>
       </c>
       <c r="G17">
-        <v>0.002600268264205452</v>
+        <v>2.600268264205452E-3</v>
       </c>
       <c r="H17">
-        <v>77.06815639756738</v>
+        <v>77.068156397567378</v>
       </c>
       <c r="I17">
         <v>0.2600268264205452</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -998,25 +1015,25 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>9.310380979047048</v>
+        <v>9.3103809790470482</v>
       </c>
       <c r="E18">
-        <v>1.931235297421907</v>
+        <v>1.9312352974219069</v>
       </c>
       <c r="F18">
-        <v>0.490020051528792</v>
+        <v>0.49002005152879202</v>
       </c>
       <c r="G18">
-        <v>0.02264820576187221</v>
+        <v>2.2648205761872209E-2</v>
       </c>
       <c r="H18">
         <v>49.0020051528792</v>
       </c>
       <c r="I18">
-        <v>2.264820576187221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>2.2648205761872209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1027,25 +1044,25 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>9.310380979047048</v>
+        <v>9.3103809790470482</v>
       </c>
       <c r="E19">
-        <v>1.931235297421907</v>
+        <v>1.9312352974219069</v>
       </c>
       <c r="F19">
-        <v>0.490020051528792</v>
+        <v>0.49002005152879202</v>
       </c>
       <c r="G19">
-        <v>0.02264820576187221</v>
+        <v>2.2648205761872209E-2</v>
       </c>
       <c r="H19">
         <v>49.0020051528792</v>
       </c>
       <c r="I19">
-        <v>2.264820576187221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>2.2648205761872209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1056,25 +1073,25 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>5.709969283960952</v>
+        <v>5.7099692839609517</v>
       </c>
       <c r="E20">
         <v>1.223915928877652</v>
       </c>
       <c r="F20">
-        <v>0.3005246991558396</v>
+        <v>0.30052469915583963</v>
       </c>
       <c r="G20">
-        <v>0.0143532483221791</v>
+        <v>1.43532483221791E-2</v>
       </c>
       <c r="H20">
-        <v>30.05246991558396</v>
+        <v>30.052469915583959</v>
       </c>
       <c r="I20">
         <v>1.43532483221791</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1085,25 +1102,25 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>5.709969283960952</v>
+        <v>5.7099692839609517</v>
       </c>
       <c r="E21">
         <v>1.223915928877652</v>
       </c>
       <c r="F21">
-        <v>0.3005246991558396</v>
+        <v>0.30052469915583963</v>
       </c>
       <c r="G21">
-        <v>0.0143532483221791</v>
+        <v>1.43532483221791E-2</v>
       </c>
       <c r="H21">
-        <v>30.05246991558396</v>
+        <v>30.052469915583959</v>
       </c>
       <c r="I21">
         <v>1.43532483221791</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1117,22 +1134,22 @@
         <v>2.113155435498149</v>
       </c>
       <c r="E22">
-        <v>0.02208286442552776</v>
+        <v>2.208286442552776E-2</v>
       </c>
       <c r="F22">
-        <v>0.1112187071314815</v>
+        <v>0.11121870713148151</v>
       </c>
       <c r="G22">
-        <v>0.0002589727196827818</v>
+        <v>2.5897271968278179E-4</v>
       </c>
       <c r="H22">
         <v>11.12187071314815</v>
       </c>
       <c r="I22">
-        <v>0.02589727196827818</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>2.5897271968278179E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1146,22 +1163,22 @@
         <v>2.113155435498149</v>
       </c>
       <c r="E23">
-        <v>0.02208286442552776</v>
+        <v>2.208286442552776E-2</v>
       </c>
       <c r="F23">
-        <v>0.1112187071314815</v>
+        <v>0.11121870713148151</v>
       </c>
       <c r="G23">
-        <v>0.0002589727196827818</v>
+        <v>2.5897271968278179E-4</v>
       </c>
       <c r="H23">
         <v>11.12187071314815</v>
       </c>
       <c r="I23">
-        <v>0.02589727196827818</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>2.5897271968278179E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1175,22 +1192,22 @@
         <v>0.5667015996249436</v>
       </c>
       <c r="E24">
-        <v>5.833930721003426</v>
+        <v>5.8339307210034264</v>
       </c>
       <c r="F24">
-        <v>0.02982639998026021</v>
+        <v>2.982639998026021E-2</v>
       </c>
       <c r="G24">
-        <v>0.06841634654574569</v>
+        <v>6.8416346545745688E-2</v>
       </c>
       <c r="H24">
-        <v>2.982639998026021</v>
+        <v>2.9826399980260212</v>
       </c>
       <c r="I24">
-        <v>6.841634654574569</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>6.8416346545745688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1204,22 +1221,22 @@
         <v>0.5667015996249436</v>
       </c>
       <c r="E25">
-        <v>5.833930721003426</v>
+        <v>5.8339307210034264</v>
       </c>
       <c r="F25">
-        <v>0.02982639998026021</v>
+        <v>2.982639998026021E-2</v>
       </c>
       <c r="G25">
-        <v>0.06841634654574569</v>
+        <v>6.8416346545745688E-2</v>
       </c>
       <c r="H25">
-        <v>2.982639998026021</v>
+        <v>2.9826399980260212</v>
       </c>
       <c r="I25">
-        <v>6.841634654574569</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>6.8416346545745688</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1233,22 +1250,22 @@
         <v>1.857919385152093</v>
       </c>
       <c r="E26">
-        <v>10.5975724117296</v>
+        <v>10.597572411729599</v>
       </c>
       <c r="F26">
-        <v>0.09778523079747858</v>
+        <v>9.7785230797478584E-2</v>
       </c>
       <c r="G26">
-        <v>0.124281075888371</v>
+        <v>0.12428107588837101</v>
       </c>
       <c r="H26">
-        <v>9.778523079747858</v>
+        <v>9.7785230797478579</v>
       </c>
       <c r="I26">
-        <v>12.4281075888371</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>12.428107588837101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1262,22 +1279,22 @@
         <v>1.857919385152093</v>
       </c>
       <c r="E27">
-        <v>10.5975724117296</v>
+        <v>10.597572411729599</v>
       </c>
       <c r="F27">
-        <v>0.09778523079747858</v>
+        <v>9.7785230797478584E-2</v>
       </c>
       <c r="G27">
-        <v>0.124281075888371</v>
+        <v>0.12428107588837101</v>
       </c>
       <c r="H27">
-        <v>9.778523079747858</v>
+        <v>9.7785230797478579</v>
       </c>
       <c r="I27">
-        <v>12.4281075888371</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>12.428107588837101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1288,13 +1305,13 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>3.72139871752351</v>
+        <v>3.7213987175235101</v>
       </c>
       <c r="E28">
         <v>10.63566234031939</v>
       </c>
       <c r="F28">
-        <v>0.1958630903959742</v>
+        <v>0.19586309039597419</v>
       </c>
       <c r="G28">
         <v>0.1247277685007669</v>
@@ -1306,7 +1323,7 @@
         <v>12.47277685007669</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1317,13 +1334,13 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>3.72139871752351</v>
+        <v>3.7213987175235101</v>
       </c>
       <c r="E29">
         <v>10.63566234031939</v>
       </c>
       <c r="F29">
-        <v>0.1958630903959742</v>
+        <v>0.19586309039597419</v>
       </c>
       <c r="G29">
         <v>0.1247277685007669</v>
@@ -1335,7 +1352,7 @@
         <v>12.47277685007669</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1349,22 +1366,22 @@
         <v>1.942399274176265</v>
       </c>
       <c r="E30">
-        <v>4.728964998348687</v>
+        <v>4.7289649983486868</v>
       </c>
       <c r="F30">
         <v>0.1022315407461192</v>
       </c>
       <c r="G30">
-        <v>0.05545806482838667</v>
+        <v>5.5458064828386673E-2</v>
       </c>
       <c r="H30">
-        <v>10.22315407461192</v>
+        <v>10.223154074611919</v>
       </c>
       <c r="I30">
-        <v>5.545806482838667</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>5.5458064828386666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1378,22 +1395,22 @@
         <v>1.942399274176265</v>
       </c>
       <c r="E31">
-        <v>4.728964998348687</v>
+        <v>4.7289649983486868</v>
       </c>
       <c r="F31">
         <v>0.1022315407461192</v>
       </c>
       <c r="G31">
-        <v>0.05545806482838667</v>
+        <v>5.5458064828386673E-2</v>
       </c>
       <c r="H31">
-        <v>10.22315407461192</v>
+        <v>10.223154074611919</v>
       </c>
       <c r="I31">
-        <v>5.545806482838667</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>5.5458064828386666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1407,22 +1424,22 @@
         <v>0.9023648162083342</v>
       </c>
       <c r="E32">
-        <v>13.08712533372876</v>
+        <v>13.087125333728761</v>
       </c>
       <c r="F32">
-        <v>0.04749288506359656</v>
+        <v>4.7492885063596557E-2</v>
       </c>
       <c r="G32">
-        <v>0.1534768486187973</v>
+        <v>0.15347684861879729</v>
       </c>
       <c r="H32">
-        <v>4.749288506359655</v>
+        <v>4.7492885063596546</v>
       </c>
       <c r="I32">
-        <v>15.34768486187973</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>15.347684861879729</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1436,22 +1453,22 @@
         <v>0.9023648162083342</v>
       </c>
       <c r="E33">
-        <v>13.08712533372876</v>
+        <v>13.087125333728761</v>
       </c>
       <c r="F33">
-        <v>0.04749288506359656</v>
+        <v>4.7492885063596557E-2</v>
       </c>
       <c r="G33">
-        <v>0.1534768486187973</v>
+        <v>0.15347684861879729</v>
       </c>
       <c r="H33">
-        <v>4.749288506359655</v>
+        <v>4.7492885063596546</v>
       </c>
       <c r="I33">
-        <v>15.34768486187973</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>15.347684861879729</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1465,22 +1482,22 @@
         <v>0.9023648162083342</v>
       </c>
       <c r="E34">
-        <v>13.08712533372876</v>
+        <v>13.087125333728761</v>
       </c>
       <c r="F34">
-        <v>0.04749288506359656</v>
+        <v>4.7492885063596557E-2</v>
       </c>
       <c r="G34">
-        <v>0.1534768486187973</v>
+        <v>0.15347684861879729</v>
       </c>
       <c r="H34">
-        <v>4.749288506359655</v>
+        <v>4.7492885063596546</v>
       </c>
       <c r="I34">
-        <v>15.34768486187973</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>15.347684861879729</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1494,22 +1511,22 @@
         <v>0.9023648162083342</v>
       </c>
       <c r="E35">
-        <v>13.08712533372876</v>
+        <v>13.087125333728761</v>
       </c>
       <c r="F35">
-        <v>0.04749288506359656</v>
+        <v>4.7492885063596557E-2</v>
       </c>
       <c r="G35">
-        <v>0.1534768486187973</v>
+        <v>0.15347684861879729</v>
       </c>
       <c r="H35">
-        <v>4.749288506359655</v>
+        <v>4.7492885063596546</v>
       </c>
       <c r="I35">
-        <v>15.34768486187973</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>15.347684861879729</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1520,25 +1537,25 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>2.997865182010097</v>
+        <v>2.9978651820100972</v>
       </c>
       <c r="E36">
-        <v>18.72767476588558</v>
+        <v>18.727674765885581</v>
       </c>
       <c r="F36">
-        <v>0.1577823780005314</v>
+        <v>0.15778237800053141</v>
       </c>
       <c r="G36">
-        <v>0.2196253517659986</v>
+        <v>0.21962535176599859</v>
       </c>
       <c r="H36">
-        <v>15.77823780005314</v>
+        <v>15.778237800053139</v>
       </c>
       <c r="I36">
-        <v>21.96253517659986</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>21.962535176599861</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1549,25 +1566,25 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>2.997865182010097</v>
+        <v>2.9978651820100972</v>
       </c>
       <c r="E37">
-        <v>18.72767476588558</v>
+        <v>18.727674765885581</v>
       </c>
       <c r="F37">
-        <v>0.1577823780005314</v>
+        <v>0.15778237800053141</v>
       </c>
       <c r="G37">
-        <v>0.2196253517659986</v>
+        <v>0.21962535176599859</v>
       </c>
       <c r="H37">
-        <v>15.77823780005314</v>
+        <v>15.778237800053139</v>
       </c>
       <c r="I37">
-        <v>21.96253517659986</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>21.962535176599861</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1578,25 +1595,25 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>9.220050677491667</v>
+        <v>9.2200506774916668</v>
       </c>
       <c r="E38">
         <v>1.115418495046526</v>
       </c>
       <c r="F38">
-        <v>0.4852658251311404</v>
+        <v>0.48526582513114042</v>
       </c>
       <c r="G38">
-        <v>0.01308086467771963</v>
+        <v>1.308086467771963E-2</v>
       </c>
       <c r="H38">
-        <v>48.52658251311404</v>
+        <v>48.526582513114043</v>
       </c>
       <c r="I38">
         <v>1.308086467771963</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1607,25 +1624,25 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>9.220050677491667</v>
+        <v>9.2200506774916668</v>
       </c>
       <c r="E39">
         <v>1.115418495046526</v>
       </c>
       <c r="F39">
-        <v>0.4852658251311404</v>
+        <v>0.48526582513114042</v>
       </c>
       <c r="G39">
-        <v>0.01308086467771963</v>
+        <v>1.308086467771963E-2</v>
       </c>
       <c r="H39">
-        <v>48.52658251311404</v>
+        <v>48.526582513114043</v>
       </c>
       <c r="I39">
         <v>1.308086467771963</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1639,22 +1656,22 @@
         <v>13.1843818298735</v>
       </c>
       <c r="E40">
-        <v>5.201032091922556</v>
+        <v>5.2010320919225563</v>
       </c>
       <c r="F40">
         <v>0.6939148331512367</v>
       </c>
       <c r="G40">
-        <v>0.0609941446022717</v>
+        <v>6.0994144602271698E-2</v>
       </c>
       <c r="H40">
-        <v>69.39148331512366</v>
+        <v>69.391483315123665</v>
       </c>
       <c r="I40">
-        <v>6.09941446022717</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>6.0994144602271696</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1668,22 +1685,22 @@
         <v>13.1843818298735</v>
       </c>
       <c r="E41">
-        <v>5.201032091922556</v>
+        <v>5.2010320919225563</v>
       </c>
       <c r="F41">
         <v>0.6939148331512367</v>
       </c>
       <c r="G41">
-        <v>0.0609941446022717</v>
+        <v>6.0994144602271698E-2</v>
       </c>
       <c r="H41">
-        <v>69.39148331512366</v>
+        <v>69.391483315123665</v>
       </c>
       <c r="I41">
-        <v>6.09941446022717</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>6.0994144602271696</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1700,19 +1717,19 @@
         <v>2.188247770838061</v>
       </c>
       <c r="F42">
-        <v>0.7479304958059956</v>
+        <v>0.74793049580599558</v>
       </c>
       <c r="G42">
-        <v>0.02566227214159689</v>
+        <v>2.566227214159689E-2</v>
       </c>
       <c r="H42">
-        <v>74.79304958059956</v>
+        <v>74.793049580599558</v>
       </c>
       <c r="I42">
-        <v>2.566227214159689</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>2.5662272141596891</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1729,19 +1746,19 @@
         <v>2.188247770838061</v>
       </c>
       <c r="F43">
-        <v>0.7479304958059956</v>
+        <v>0.74793049580599558</v>
       </c>
       <c r="G43">
-        <v>0.02566227214159689</v>
+        <v>2.566227214159689E-2</v>
       </c>
       <c r="H43">
-        <v>74.79304958059956</v>
+        <v>74.793049580599558</v>
       </c>
       <c r="I43">
-        <v>2.566227214159689</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>2.5662272141596891</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1752,25 +1769,25 @@
         <v>2</v>
       </c>
       <c r="D44">
-        <v>15.20936622437426</v>
+        <v>15.209366224374261</v>
       </c>
       <c r="E44">
-        <v>2.338630048909664</v>
+        <v>2.3386300489096641</v>
       </c>
       <c r="F44">
-        <v>0.8004929591775924</v>
+        <v>0.80049295917759244</v>
       </c>
       <c r="G44">
-        <v>0.02742585257182784</v>
+        <v>2.7425852571827839E-2</v>
       </c>
       <c r="H44">
-        <v>80.04929591775924</v>
+        <v>80.049295917759238</v>
       </c>
       <c r="I44">
         <v>2.742585257182784</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1781,25 +1798,25 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>15.20936622437426</v>
+        <v>15.209366224374261</v>
       </c>
       <c r="E45">
-        <v>2.338630048909664</v>
+        <v>2.3386300489096641</v>
       </c>
       <c r="F45">
-        <v>0.8004929591775924</v>
+        <v>0.80049295917759244</v>
       </c>
       <c r="G45">
-        <v>0.02742585257182784</v>
+        <v>2.7425852571827839E-2</v>
       </c>
       <c r="H45">
-        <v>80.04929591775924</v>
+        <v>80.049295917759238</v>
       </c>
       <c r="I45">
         <v>2.742585257182784</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1810,25 +1827,25 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <v>19.18438182987349</v>
+        <v>19.184381829873491</v>
       </c>
       <c r="E46">
-        <v>5.201032887697266</v>
+        <v>5.2010328876972656</v>
       </c>
       <c r="F46">
         <v>1.009704306835447</v>
       </c>
       <c r="G46">
-        <v>0.06099415393457286</v>
+        <v>6.0994153934572859E-2</v>
       </c>
       <c r="H46">
-        <v>100.9704306835447</v>
+        <v>100.97043068354471</v>
       </c>
       <c r="I46">
-        <v>6.099415393457286</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>6.0994153934572859</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1839,25 +1856,25 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>19.18438182987349</v>
+        <v>19.184381829873491</v>
       </c>
       <c r="E47">
-        <v>5.201032887697266</v>
+        <v>5.2010328876972656</v>
       </c>
       <c r="F47">
         <v>1.009704306835447</v>
       </c>
       <c r="G47">
-        <v>0.06099415393457286</v>
+        <v>6.0994153934572859E-2</v>
       </c>
       <c r="H47">
-        <v>100.9704306835447</v>
+        <v>100.97043068354471</v>
       </c>
       <c r="I47">
-        <v>6.099415393457286</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>6.0994153934572859</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1868,25 +1885,25 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>20.18438182987349</v>
+        <v>20.184381829873491</v>
       </c>
       <c r="E48">
-        <v>5.201032983190231</v>
+        <v>5.2010329831902311</v>
       </c>
       <c r="F48">
-        <v>1.062335885782815</v>
+        <v>1.0623358857828149</v>
       </c>
       <c r="G48">
-        <v>0.06099415505444905</v>
+        <v>6.0994155054449051E-2</v>
       </c>
       <c r="H48">
         <v>106.2335885782815</v>
       </c>
       <c r="I48">
-        <v>6.099415505444905</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>6.0994155054449051</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1897,25 +1914,25 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>20.18438182987349</v>
+        <v>20.184381829873491</v>
       </c>
       <c r="E49">
-        <v>5.201032983190231</v>
+        <v>5.2010329831902311</v>
       </c>
       <c r="F49">
-        <v>1.062335885782815</v>
+        <v>1.0623358857828149</v>
       </c>
       <c r="G49">
-        <v>0.06099415505444905</v>
+        <v>6.0994155054449051E-2</v>
       </c>
       <c r="H49">
         <v>106.2335885782815</v>
       </c>
       <c r="I49">
-        <v>6.099415505444905</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>6.0994155054449051</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1926,25 +1943,25 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>20.18438182987349</v>
+        <v>20.184381829873491</v>
       </c>
       <c r="E50">
-        <v>5.201032983190231</v>
+        <v>5.2010329831902311</v>
       </c>
       <c r="F50">
-        <v>1.062335885782815</v>
+        <v>1.0623358857828149</v>
       </c>
       <c r="G50">
-        <v>0.06099415505444905</v>
+        <v>6.0994155054449051E-2</v>
       </c>
       <c r="H50">
         <v>106.2335885782815</v>
       </c>
       <c r="I50">
-        <v>6.099415505444905</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>6.0994155054449051</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1955,25 +1972,25 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>20.18438182987349</v>
+        <v>20.184381829873491</v>
       </c>
       <c r="E51">
-        <v>5.201032983190231</v>
+        <v>5.2010329831902311</v>
       </c>
       <c r="F51">
-        <v>1.062335885782815</v>
+        <v>1.0623358857828149</v>
       </c>
       <c r="G51">
-        <v>0.06099415505444905</v>
+        <v>6.0994155054449051E-2</v>
       </c>
       <c r="H51">
         <v>106.2335885782815</v>
       </c>
       <c r="I51">
-        <v>6.099415505444905</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>6.0994155054449051</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1984,25 +2001,25 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>17.27510386424799</v>
+        <v>17.275103864247988</v>
       </c>
       <c r="E52">
-        <v>0.006606367286607906</v>
+        <v>6.606367286607906E-3</v>
       </c>
       <c r="F52">
-        <v>0.9092159928551575</v>
+        <v>0.90921599285515753</v>
       </c>
       <c r="G52">
-        <v>7.747495390408865E-05</v>
+        <v>7.747495390408865E-5</v>
       </c>
       <c r="H52">
-        <v>90.92159928551575</v>
+        <v>90.921599285515754</v>
       </c>
       <c r="I52">
-        <v>0.007747495390408865</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>7.747495390408865E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2016,22 +2033,22 @@
         <v>14.28935500441627</v>
       </c>
       <c r="E53">
-        <v>0.8079706824730977</v>
+        <v>0.80797068247309767</v>
       </c>
       <c r="F53">
         <v>0.7520713160219088</v>
       </c>
       <c r="G53">
-        <v>0.009475327160102798</v>
+        <v>9.4753271601027977E-3</v>
       </c>
       <c r="H53">
-        <v>75.20713160219088</v>
+        <v>75.207131602190884</v>
       </c>
       <c r="I53">
-        <v>0.9475327160102798</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.94753271601027977</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2045,22 +2062,22 @@
         <v>14.28935500441627</v>
       </c>
       <c r="E54">
-        <v>0.8079706824730977</v>
+        <v>0.80797068247309767</v>
       </c>
       <c r="F54">
         <v>0.7520713160219088</v>
       </c>
       <c r="G54">
-        <v>0.009475327160102798</v>
+        <v>9.4753271601027977E-3</v>
       </c>
       <c r="H54">
-        <v>75.20713160219088</v>
+        <v>75.207131602190884</v>
       </c>
       <c r="I54">
-        <v>0.9475327160102798</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.94753271601027977</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2077,19 +2094,19 @@
         <v>1.923981073880398</v>
       </c>
       <c r="F55">
-        <v>0.5952051224458194</v>
+        <v>0.59520512244581936</v>
       </c>
       <c r="G55">
-        <v>0.02256313319322656</v>
+        <v>2.2563133193226559E-2</v>
       </c>
       <c r="H55">
-        <v>59.52051224458194</v>
+        <v>59.520512244581937</v>
       </c>
       <c r="I55">
-        <v>2.256313319322656</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>2.2563133193226559</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2106,19 +2123,19 @@
         <v>1.923981073880398</v>
       </c>
       <c r="F56">
-        <v>0.5952051224458194</v>
+        <v>0.59520512244581936</v>
       </c>
       <c r="G56">
-        <v>0.02256313319322656</v>
+        <v>2.2563133193226559E-2</v>
       </c>
       <c r="H56">
-        <v>59.52051224458194</v>
+        <v>59.520512244581937</v>
       </c>
       <c r="I56">
-        <v>2.256313319322656</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>2.2563133193226559</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2129,25 +2146,25 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>8.222786640278766</v>
+        <v>8.2227866402787662</v>
       </c>
       <c r="E57">
-        <v>0.8023299200258833</v>
+        <v>0.80232992002588333</v>
       </c>
       <c r="F57">
-        <v>0.4327782442251983</v>
+        <v>0.43277824422519828</v>
       </c>
       <c r="G57">
-        <v>0.009409176158860832</v>
+        <v>9.4091761588608325E-3</v>
       </c>
       <c r="H57">
-        <v>43.27782442251983</v>
+        <v>43.277824422519828</v>
       </c>
       <c r="I57">
-        <v>0.9409176158860832</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.94091761588608325</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2158,25 +2175,25 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>8.222786640278766</v>
+        <v>8.2227866402787662</v>
       </c>
       <c r="E58">
-        <v>0.8023299200258833</v>
+        <v>0.80232992002588333</v>
       </c>
       <c r="F58">
-        <v>0.4327782442251983</v>
+        <v>0.43277824422519828</v>
       </c>
       <c r="G58">
-        <v>0.009409176158860832</v>
+        <v>9.4091761588608325E-3</v>
       </c>
       <c r="H58">
-        <v>43.27782442251983</v>
+        <v>43.277824422519828</v>
       </c>
       <c r="I58">
-        <v>0.9409176158860832</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.94091761588608325</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2187,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>2.015564321696717</v>
+        <v>2.0155643216967172</v>
       </c>
       <c r="E59">
         <v>17.7225887606314</v>
@@ -2196,7 +2213,7 @@
         <v>0.1060823327208799</v>
       </c>
       <c r="G59">
-        <v>0.2078383910130739</v>
+        <v>0.20783839101307389</v>
       </c>
       <c r="H59">
         <v>10.60823327208799</v>
@@ -2205,7 +2222,7 @@
         <v>20.78383910130739</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2216,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>2.015564321696717</v>
+        <v>2.0155643216967172</v>
       </c>
       <c r="E60">
         <v>17.7225887606314</v>
@@ -2225,7 +2242,7 @@
         <v>0.1060823327208799</v>
       </c>
       <c r="G60">
-        <v>0.2078383910130739</v>
+        <v>0.20783839101307389</v>
       </c>
       <c r="H60">
         <v>10.60823327208799</v>
@@ -2234,7 +2251,7 @@
         <v>20.78383910130739</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2245,25 +2262,25 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>0.5723018878887958</v>
+        <v>0.57230188788879577</v>
       </c>
       <c r="E61">
         <v>15.39930403104557</v>
       </c>
       <c r="F61">
-        <v>0.03012115199414711</v>
+        <v>3.0121151994147111E-2</v>
       </c>
       <c r="G61">
-        <v>0.1805924978433923</v>
+        <v>0.18059249784339229</v>
       </c>
       <c r="H61">
-        <v>3.012115199414711</v>
+        <v>3.0121151994147111</v>
       </c>
       <c r="I61">
-        <v>18.05924978433923</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>18.059249784339229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2274,25 +2291,25 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>0.5723018878887958</v>
+        <v>0.57230188788879577</v>
       </c>
       <c r="E62">
         <v>15.39930403104557</v>
       </c>
       <c r="F62">
-        <v>0.03012115199414711</v>
+        <v>3.0121151994147111E-2</v>
       </c>
       <c r="G62">
-        <v>0.1805924978433923</v>
+        <v>0.18059249784339229</v>
       </c>
       <c r="H62">
-        <v>3.012115199414711</v>
+        <v>3.0121151994147111</v>
       </c>
       <c r="I62">
-        <v>18.05924978433923</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>18.059249784339229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2303,25 +2320,25 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>0.5723018878887958</v>
+        <v>0.57230188788879577</v>
       </c>
       <c r="E63">
         <v>15.39930403104557</v>
       </c>
       <c r="F63">
-        <v>0.03012115199414711</v>
+        <v>3.0121151994147111E-2</v>
       </c>
       <c r="G63">
-        <v>0.1805924978433923</v>
+        <v>0.18059249784339229</v>
       </c>
       <c r="H63">
-        <v>3.012115199414711</v>
+        <v>3.0121151994147111</v>
       </c>
       <c r="I63">
-        <v>18.05924978433923</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>18.059249784339229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2332,25 +2349,25 @@
         <v>1</v>
       </c>
       <c r="D64">
-        <v>0.5723018878887958</v>
+        <v>0.57230188788879577</v>
       </c>
       <c r="E64">
         <v>15.39930403104557</v>
       </c>
       <c r="F64">
-        <v>0.03012115199414711</v>
+        <v>3.0121151994147111E-2</v>
       </c>
       <c r="G64">
-        <v>0.1805924978433923</v>
+        <v>0.18059249784339229</v>
       </c>
       <c r="H64">
-        <v>3.012115199414711</v>
+        <v>3.0121151994147111</v>
       </c>
       <c r="I64">
-        <v>18.05924978433923</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>18.059249784339229</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2361,25 +2378,25 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>4.543253132650205</v>
+        <v>4.5432531326502046</v>
       </c>
       <c r="E65">
-        <v>7.799286482602618</v>
+        <v>7.7992864826026178</v>
       </c>
       <c r="F65">
         <v>0.2391185859289581</v>
       </c>
       <c r="G65">
-        <v>0.09146469375822686</v>
+        <v>9.1464693758226856E-2</v>
       </c>
       <c r="H65">
-        <v>23.91185859289581</v>
+        <v>23.911858592895811</v>
       </c>
       <c r="I65">
-        <v>9.146469375822686</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>9.1464693758226865</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2390,25 +2407,25 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <v>4.543253132650205</v>
+        <v>4.5432531326502046</v>
       </c>
       <c r="E66">
-        <v>7.799286482602618</v>
+        <v>7.7992864826026178</v>
       </c>
       <c r="F66">
         <v>0.2391185859289581</v>
       </c>
       <c r="G66">
-        <v>0.09146469375822686</v>
+        <v>9.1464693758226856E-2</v>
       </c>
       <c r="H66">
-        <v>23.91185859289581</v>
+        <v>23.911858592895811</v>
       </c>
       <c r="I66">
-        <v>9.146469375822686</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>9.1464693758226865</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2419,16 +2436,16 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>3.72139871752351</v>
+        <v>3.7213987175235101</v>
       </c>
       <c r="E67">
-        <v>26.23423530552463</v>
+        <v>26.234235305524631</v>
       </c>
       <c r="F67">
-        <v>0.1958630903959742</v>
+        <v>0.19586309039597419</v>
       </c>
       <c r="G67">
-        <v>0.3076571560172205</v>
+        <v>0.30765715601722049</v>
       </c>
       <c r="H67">
         <v>19.58630903959742</v>
@@ -2437,7 +2454,7 @@
         <v>30.76571560172205</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2448,16 +2465,16 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>3.72139871752351</v>
+        <v>3.7213987175235101</v>
       </c>
       <c r="E68">
-        <v>26.23423530552463</v>
+        <v>26.234235305524631</v>
       </c>
       <c r="F68">
-        <v>0.1958630903959742</v>
+        <v>0.19586309039597419</v>
       </c>
       <c r="G68">
-        <v>0.3076571560172205</v>
+        <v>0.30765715601722049</v>
       </c>
       <c r="H68">
         <v>19.58630903959742</v>
@@ -2466,7 +2483,7 @@
         <v>30.76571560172205</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2483,19 +2500,19 @@
         <v>3.214771213836332</v>
       </c>
       <c r="F69">
-        <v>0.4198680694978382</v>
+        <v>0.41986806949783823</v>
       </c>
       <c r="G69">
-        <v>0.03770063649183752</v>
+        <v>3.7700636491837518E-2</v>
       </c>
       <c r="H69">
-        <v>41.98680694978382</v>
+        <v>41.986806949783819</v>
       </c>
       <c r="I69">
         <v>3.770063649183752</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2512,19 +2529,19 @@
         <v>3.214771213836332</v>
       </c>
       <c r="F70">
-        <v>0.4198680694978382</v>
+        <v>0.41986806949783823</v>
       </c>
       <c r="G70">
-        <v>0.03770063649183752</v>
+        <v>3.7700636491837518E-2</v>
       </c>
       <c r="H70">
-        <v>41.98680694978382</v>
+        <v>41.986806949783819</v>
       </c>
       <c r="I70">
         <v>3.770063649183752</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2541,19 +2558,19 @@
         <v>4.963756532073532</v>
       </c>
       <c r="F71">
-        <v>0.5724681249674916</v>
+        <v>0.57246812496749155</v>
       </c>
       <c r="G71">
-        <v>0.05821153923621503</v>
+        <v>5.8211539236215033E-2</v>
       </c>
       <c r="H71">
-        <v>57.24681249674916</v>
+        <v>57.246812496749158</v>
       </c>
       <c r="I71">
-        <v>5.821153923621503</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>5.8211539236215026</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2570,19 +2587,19 @@
         <v>4.963756532073532</v>
       </c>
       <c r="F72">
-        <v>0.5724681249674916</v>
+        <v>0.57246812496749155</v>
       </c>
       <c r="G72">
-        <v>0.05821153923621503</v>
+        <v>5.8211539236215033E-2</v>
       </c>
       <c r="H72">
-        <v>57.24681249674916</v>
+        <v>57.246812496749158</v>
       </c>
       <c r="I72">
-        <v>5.821153923621503</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>5.8211539236215026</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2611,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2640,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2651,25 +2668,25 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>3.246639578172018</v>
+        <v>3.2466395781720179</v>
       </c>
       <c r="E75">
         <v>1.923981073880398</v>
       </c>
       <c r="F75">
-        <v>0.1708757672722115</v>
+        <v>0.17087576727221149</v>
       </c>
       <c r="G75">
-        <v>0.02256313319322656</v>
+        <v>2.2563133193226559E-2</v>
       </c>
       <c r="H75">
-        <v>17.08757672722115</v>
+        <v>17.087576727221151</v>
       </c>
       <c r="I75">
-        <v>2.256313319322656</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>2.2563133193226559</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2680,25 +2697,25 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <v>3.246639578172018</v>
+        <v>3.2466395781720179</v>
       </c>
       <c r="E76">
         <v>1.923981073880398</v>
       </c>
       <c r="F76">
-        <v>0.1708757672722115</v>
+        <v>0.17087576727221149</v>
       </c>
       <c r="G76">
-        <v>0.02256313319322656</v>
+        <v>2.2563133193226559E-2</v>
       </c>
       <c r="H76">
-        <v>17.08757672722115</v>
+        <v>17.087576727221151</v>
       </c>
       <c r="I76">
-        <v>2.256313319322656</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>2.2563133193226559</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2715,19 +2732,19 @@
         <v>1.139156470888494</v>
       </c>
       <c r="F77">
-        <v>0.2231456298953098</v>
+        <v>0.22314562989530981</v>
       </c>
       <c r="G77">
-        <v>0.01335924741127725</v>
+        <v>1.335924741127725E-2</v>
       </c>
       <c r="H77">
         <v>22.31456298953098</v>
       </c>
       <c r="I77">
-        <v>1.335924741127725</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>1.3359247411277251</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2738,25 +2755,25 @@
         <v>1</v>
       </c>
       <c r="D78">
-        <v>5.234257450994359</v>
+        <v>5.2342574509943587</v>
       </c>
       <c r="E78">
-        <v>0.5095578624782178</v>
+        <v>0.50955786247821777</v>
       </c>
       <c r="F78">
-        <v>0.275487234262861</v>
+        <v>0.27548723426286098</v>
       </c>
       <c r="G78">
-        <v>0.00597574585157612</v>
+        <v>5.9757458515761197E-3</v>
       </c>
       <c r="H78">
-        <v>27.5487234262861</v>
+        <v>27.548723426286099</v>
       </c>
       <c r="I78">
-        <v>0.597574585157612</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.59757458515761197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2767,25 +2784,25 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>5.234257450994359</v>
+        <v>5.2342574509943587</v>
       </c>
       <c r="E79">
-        <v>0.5095578624782178</v>
+        <v>0.50955786247821777</v>
       </c>
       <c r="F79">
-        <v>0.275487234262861</v>
+        <v>0.27548723426286098</v>
       </c>
       <c r="G79">
-        <v>0.00597574585157612</v>
+        <v>5.9757458515761197E-3</v>
       </c>
       <c r="H79">
-        <v>27.5487234262861</v>
+        <v>27.548723426286099</v>
       </c>
       <c r="I79">
-        <v>0.597574585157612</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.59757458515761197</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2802,19 +2819,19 @@
         <v>1.139156470888494</v>
       </c>
       <c r="F80">
-        <v>0.2231456298953098</v>
+        <v>0.22314562989530981</v>
       </c>
       <c r="G80">
-        <v>0.01335924741127725</v>
+        <v>1.335924741127725E-2</v>
       </c>
       <c r="H80">
         <v>22.31456298953098</v>
       </c>
       <c r="I80">
-        <v>1.335924741127725</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>1.3359247411277251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2831,19 +2848,19 @@
         <v>1.139156470888494</v>
       </c>
       <c r="F81">
-        <v>0.2231456298953098</v>
+        <v>0.22314562989530981</v>
       </c>
       <c r="G81">
-        <v>0.01335924741127725</v>
+        <v>1.335924741127725E-2</v>
       </c>
       <c r="H81">
         <v>22.31456298953098</v>
       </c>
       <c r="I81">
-        <v>1.335924741127725</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>1.3359247411277251</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2854,25 +2871,25 @@
         <v>2</v>
       </c>
       <c r="D82">
-        <v>4.543253132650205</v>
+        <v>4.5432531326502046</v>
       </c>
       <c r="E82">
-        <v>7.799286482602618</v>
+        <v>7.7992864826026178</v>
       </c>
       <c r="F82">
         <v>0.2391185859289581</v>
       </c>
       <c r="G82">
-        <v>0.09146469375822686</v>
+        <v>9.1464693758226856E-2</v>
       </c>
       <c r="H82">
-        <v>23.91185859289581</v>
+        <v>23.911858592895811</v>
       </c>
       <c r="I82">
-        <v>9.146469375822686</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>9.1464693758226865</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2883,25 +2900,25 @@
         <v>2</v>
       </c>
       <c r="D83">
-        <v>4.543253132650205</v>
+        <v>4.5432531326502046</v>
       </c>
       <c r="E83">
-        <v>7.799286482602618</v>
+        <v>7.7992864826026178</v>
       </c>
       <c r="F83">
         <v>0.2391185859289581</v>
       </c>
       <c r="G83">
-        <v>0.09146469375822686</v>
+        <v>9.1464693758226856E-2</v>
       </c>
       <c r="H83">
-        <v>23.91185859289581</v>
+        <v>23.911858592895811</v>
       </c>
       <c r="I83">
-        <v>9.146469375822686</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>9.1464693758226865</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2912,25 +2929,25 @@
         <v>2</v>
       </c>
       <c r="D84">
-        <v>4.543253132650205</v>
+        <v>4.5432531326502046</v>
       </c>
       <c r="E84">
-        <v>7.799286482602618</v>
+        <v>7.7992864826026178</v>
       </c>
       <c r="F84">
         <v>0.2391185859289581</v>
       </c>
       <c r="G84">
-        <v>0.09146469375822686</v>
+        <v>9.1464693758226856E-2</v>
       </c>
       <c r="H84">
-        <v>23.91185859289581</v>
+        <v>23.911858592895811</v>
       </c>
       <c r="I84">
-        <v>9.146469375822686</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>9.1464693758226865</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2941,25 +2958,25 @@
         <v>2</v>
       </c>
       <c r="D85">
-        <v>4.543253132650205</v>
+        <v>4.5432531326502046</v>
       </c>
       <c r="E85">
-        <v>7.799286482602618</v>
+        <v>7.7992864826026178</v>
       </c>
       <c r="F85">
         <v>0.2391185859289581</v>
       </c>
       <c r="G85">
-        <v>0.09146469375822686</v>
+        <v>9.1464693758226856E-2</v>
       </c>
       <c r="H85">
-        <v>23.91185859289581</v>
+        <v>23.911858592895811</v>
       </c>
       <c r="I85">
-        <v>9.146469375822686</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>9.1464693758226865</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2970,25 +2987,25 @@
         <v>2</v>
       </c>
       <c r="D86">
-        <v>3.129039570277109</v>
+        <v>3.1290395702771092</v>
       </c>
       <c r="E86">
-        <v>7.799286482602618</v>
+        <v>7.7992864826026178</v>
       </c>
       <c r="F86">
         <v>0.1646862931724794</v>
       </c>
       <c r="G86">
-        <v>0.09146469375822686</v>
+        <v>9.1464693758226856E-2</v>
       </c>
       <c r="H86">
-        <v>16.46862931724794</v>
+        <v>16.468629317247942</v>
       </c>
       <c r="I86">
-        <v>9.146469375822686</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>9.1464693758226865</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2999,25 +3016,25 @@
         <v>2</v>
       </c>
       <c r="D87">
-        <v>3.129039570277109</v>
+        <v>3.1290395702771092</v>
       </c>
       <c r="E87">
-        <v>7.799286482602618</v>
+        <v>7.7992864826026178</v>
       </c>
       <c r="F87">
         <v>0.1646862931724794</v>
       </c>
       <c r="G87">
-        <v>0.09146469375822686</v>
+        <v>9.1464693758226856E-2</v>
       </c>
       <c r="H87">
-        <v>16.46862931724794</v>
+        <v>16.468629317247942</v>
       </c>
       <c r="I87">
-        <v>9.146469375822686</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>9.1464693758226865</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3031,22 +3048,22 @@
         <v>0.5667015996249436</v>
       </c>
       <c r="E88">
-        <v>5.833930721003426</v>
+        <v>5.8339307210034264</v>
       </c>
       <c r="F88">
-        <v>0.02982639998026021</v>
+        <v>2.982639998026021E-2</v>
       </c>
       <c r="G88">
-        <v>0.06841634654574569</v>
+        <v>6.8416346545745688E-2</v>
       </c>
       <c r="H88">
-        <v>2.982639998026021</v>
+        <v>2.9826399980260212</v>
       </c>
       <c r="I88">
-        <v>6.841634654574569</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>6.8416346545745688</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3060,22 +3077,22 @@
         <v>0.5667015996249436</v>
       </c>
       <c r="E89">
-        <v>5.833930721003426</v>
+        <v>5.8339307210034264</v>
       </c>
       <c r="F89">
-        <v>0.02982639998026021</v>
+        <v>2.982639998026021E-2</v>
       </c>
       <c r="G89">
-        <v>0.06841634654574569</v>
+        <v>6.8416346545745688E-2</v>
       </c>
       <c r="H89">
-        <v>2.982639998026021</v>
+        <v>2.9826399980260212</v>
       </c>
       <c r="I89">
-        <v>6.841634654574569</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>6.8416346545745688</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3086,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>2.015564321696717</v>
+        <v>2.0155643216967172</v>
       </c>
       <c r="E90">
         <v>17.7225887606314</v>
@@ -3095,7 +3112,7 @@
         <v>0.1060823327208799</v>
       </c>
       <c r="G90">
-        <v>0.2078383910130739</v>
+        <v>0.20783839101307389</v>
       </c>
       <c r="H90">
         <v>10.60823327208799</v>
@@ -3104,7 +3121,7 @@
         <v>20.78383910130739</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3115,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>2.015564321696717</v>
+        <v>2.0155643216967172</v>
       </c>
       <c r="E91">
         <v>17.7225887606314</v>
@@ -3124,7 +3141,7 @@
         <v>0.1060823327208799</v>
       </c>
       <c r="G91">
-        <v>0.2078383910130739</v>
+        <v>0.20783839101307389</v>
       </c>
       <c r="H91">
         <v>10.60823327208799</v>
@@ -3133,7 +3150,7 @@
         <v>20.78383910130739</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3144,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>2.015564321696717</v>
+        <v>2.0155643216967172</v>
       </c>
       <c r="E92">
         <v>17.7225887606314</v>
@@ -3153,7 +3170,7 @@
         <v>0.1060823327208799</v>
       </c>
       <c r="G92">
-        <v>0.2078383910130739</v>
+        <v>0.20783839101307389</v>
       </c>
       <c r="H92">
         <v>10.60823327208799</v>
@@ -3162,7 +3179,7 @@
         <v>20.78383910130739</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3173,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>2.015564321696717</v>
+        <v>2.0155643216967172</v>
       </c>
       <c r="E93">
         <v>17.7225887606314</v>
@@ -3182,7 +3199,7 @@
         <v>0.1060823327208799</v>
       </c>
       <c r="G93">
-        <v>0.2078383910130739</v>
+        <v>0.20783839101307389</v>
       </c>
       <c r="H93">
         <v>10.60823327208799</v>
@@ -3191,7 +3208,7 @@
         <v>20.78383910130739</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3202,25 +3219,25 @@
         <v>1</v>
       </c>
       <c r="D94">
-        <v>11.46320242597318</v>
+        <v>11.463202425973179</v>
       </c>
       <c r="E94">
-        <v>5.418620001133718</v>
+        <v>5.4186200011337178</v>
       </c>
       <c r="F94">
-        <v>0.6033264434722724</v>
+        <v>0.60332644347227238</v>
       </c>
       <c r="G94">
-        <v>0.06354586667657736</v>
+        <v>6.3545866676577356E-2</v>
       </c>
       <c r="H94">
-        <v>60.33264434722724</v>
+        <v>60.332644347227237</v>
       </c>
       <c r="I94">
-        <v>6.354586667657736</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>6.3545866676577356</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3231,25 +3248,25 @@
         <v>1</v>
       </c>
       <c r="D95">
-        <v>11.46320242597318</v>
+        <v>11.463202425973179</v>
       </c>
       <c r="E95">
-        <v>5.418620001133718</v>
+        <v>5.4186200011337178</v>
       </c>
       <c r="F95">
-        <v>0.6033264434722724</v>
+        <v>0.60332644347227238</v>
       </c>
       <c r="G95">
-        <v>0.06354586667657736</v>
+        <v>6.3545866676577356E-2</v>
       </c>
       <c r="H95">
-        <v>60.33264434722724</v>
+        <v>60.332644347227237</v>
       </c>
       <c r="I95">
-        <v>6.354586667657736</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>6.3545866676577356</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3263,22 +3280,22 @@
         <v>14.28935500441627</v>
       </c>
       <c r="E96">
-        <v>0.8079706824730977</v>
+        <v>0.80797068247309767</v>
       </c>
       <c r="F96">
         <v>0.7520713160219088</v>
       </c>
       <c r="G96">
-        <v>0.009475327160102798</v>
+        <v>9.4753271601027977E-3</v>
       </c>
       <c r="H96">
-        <v>75.20713160219088</v>
+        <v>75.207131602190884</v>
       </c>
       <c r="I96">
-        <v>0.9475327160102798</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>0.94753271601027977</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3292,22 +3309,22 @@
         <v>14.28935500441627</v>
       </c>
       <c r="E97">
-        <v>0.8079706824730977</v>
+        <v>0.80797068247309767</v>
       </c>
       <c r="F97">
         <v>0.7520713160219088</v>
       </c>
       <c r="G97">
-        <v>0.009475327160102798</v>
+        <v>9.4753271601027977E-3</v>
       </c>
       <c r="H97">
-        <v>75.20713160219088</v>
+        <v>75.207131602190884</v>
       </c>
       <c r="I97">
-        <v>0.9475327160102798</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.94753271601027977</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3321,22 +3338,22 @@
         <v>14.28935500441627</v>
       </c>
       <c r="E98">
-        <v>0.8079706824730977</v>
+        <v>0.80797068247309767</v>
       </c>
       <c r="F98">
         <v>0.7520713160219088</v>
       </c>
       <c r="G98">
-        <v>0.009475327160102798</v>
+        <v>9.4753271601027977E-3</v>
       </c>
       <c r="H98">
-        <v>75.20713160219088</v>
+        <v>75.207131602190884</v>
       </c>
       <c r="I98">
-        <v>0.9475327160102798</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.94753271601027977</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3350,22 +3367,22 @@
         <v>14.28935500441627</v>
       </c>
       <c r="E99">
-        <v>0.8079706824730977</v>
+        <v>0.80797068247309767</v>
       </c>
       <c r="F99">
         <v>0.7520713160219088</v>
       </c>
       <c r="G99">
-        <v>0.009475327160102798</v>
+        <v>9.4753271601027977E-3</v>
       </c>
       <c r="H99">
-        <v>75.20713160219088</v>
+        <v>75.207131602190884</v>
       </c>
       <c r="I99">
-        <v>0.9475327160102798</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.94753271601027977</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3379,22 +3396,22 @@
         <v>14.28935500441627</v>
       </c>
       <c r="E100">
-        <v>0.8079706824730977</v>
+        <v>0.80797068247309767</v>
       </c>
       <c r="F100">
         <v>0.7520713160219088</v>
       </c>
       <c r="G100">
-        <v>0.009475327160102798</v>
+        <v>9.4753271601027977E-3</v>
       </c>
       <c r="H100">
-        <v>75.20713160219088</v>
+        <v>75.207131602190884</v>
       </c>
       <c r="I100">
-        <v>0.9475327160102798</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>0.94753271601027977</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3408,22 +3425,22 @@
         <v>14.28935500441627</v>
       </c>
       <c r="E101">
-        <v>0.8079706824730977</v>
+        <v>0.80797068247309767</v>
       </c>
       <c r="F101">
         <v>0.7520713160219088</v>
       </c>
       <c r="G101">
-        <v>0.009475327160102798</v>
+        <v>9.4753271601027977E-3</v>
       </c>
       <c r="H101">
-        <v>75.20713160219088</v>
+        <v>75.207131602190884</v>
       </c>
       <c r="I101">
-        <v>0.9475327160102798</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.94753271601027977</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3434,7 +3451,7 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>2.015564321696717</v>
+        <v>2.0155643216967172</v>
       </c>
       <c r="E102">
         <v>17.7225887606314</v>
@@ -3443,7 +3460,7 @@
         <v>0.1060823327208799</v>
       </c>
       <c r="G102">
-        <v>0.2078383910130739</v>
+        <v>0.20783839101307389</v>
       </c>
       <c r="H102">
         <v>10.60823327208799</v>
@@ -3452,7 +3469,7 @@
         <v>20.78383910130739</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3463,7 +3480,7 @@
         <v>2</v>
       </c>
       <c r="D103">
-        <v>2.015564321696717</v>
+        <v>2.0155643216967172</v>
       </c>
       <c r="E103">
         <v>17.7225887606314</v>
@@ -3472,7 +3489,7 @@
         <v>0.1060823327208799</v>
       </c>
       <c r="G103">
-        <v>0.2078383910130739</v>
+        <v>0.20783839101307389</v>
       </c>
       <c r="H103">
         <v>10.60823327208799</v>
@@ -3481,7 +3498,7 @@
         <v>20.78383910130739</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3498,19 +3515,19 @@
         <v>16.5037135255001</v>
       </c>
       <c r="F104">
-        <v>0.05458261851600182</v>
+        <v>5.4582618516001817E-2</v>
       </c>
       <c r="G104">
-        <v>0.1935442564971215</v>
+        <v>0.19354425649712151</v>
       </c>
       <c r="H104">
-        <v>5.458261851600183</v>
+        <v>5.4582618516001826</v>
       </c>
       <c r="I104">
-        <v>19.35442564971215</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>19.354425649712152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3527,19 +3544,19 @@
         <v>16.5037135255001</v>
       </c>
       <c r="F105">
-        <v>0.05458261851600182</v>
+        <v>5.4582618516001817E-2</v>
       </c>
       <c r="G105">
-        <v>0.1935442564971215</v>
+        <v>0.19354425649712151</v>
       </c>
       <c r="H105">
-        <v>5.458261851600183</v>
+        <v>5.4582618516001826</v>
       </c>
       <c r="I105">
-        <v>19.35442564971215</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>19.354425649712152</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3550,25 +3567,25 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>3.246639578172018</v>
+        <v>3.2466395781720179</v>
       </c>
       <c r="E106">
         <v>1.923981073880398</v>
       </c>
       <c r="F106">
-        <v>0.1708757672722115</v>
+        <v>0.17087576727221149</v>
       </c>
       <c r="G106">
-        <v>0.02256313319322656</v>
+        <v>2.2563133193226559E-2</v>
       </c>
       <c r="H106">
-        <v>17.08757672722115</v>
+        <v>17.087576727221151</v>
       </c>
       <c r="I106">
-        <v>2.256313319322656</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>2.2563133193226559</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3579,25 +3596,25 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>3.246639578172018</v>
+        <v>3.2466395781720179</v>
       </c>
       <c r="E107">
         <v>1.923981073880398</v>
       </c>
       <c r="F107">
-        <v>0.1708757672722115</v>
+        <v>0.17087576727221149</v>
       </c>
       <c r="G107">
-        <v>0.02256313319322656</v>
+        <v>2.2563133193226559E-2</v>
       </c>
       <c r="H107">
-        <v>17.08757672722115</v>
+        <v>17.087576727221151</v>
       </c>
       <c r="I107">
-        <v>2.256313319322656</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>2.2563133193226559</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3608,25 +3625,25 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>3.246639578172018</v>
+        <v>3.2466395781720179</v>
       </c>
       <c r="E108">
         <v>1.923981073880398</v>
       </c>
       <c r="F108">
-        <v>0.1708757672722115</v>
+        <v>0.17087576727221149</v>
       </c>
       <c r="G108">
-        <v>0.02256313319322656</v>
+        <v>2.2563133193226559E-2</v>
       </c>
       <c r="H108">
-        <v>17.08757672722115</v>
+        <v>17.087576727221151</v>
       </c>
       <c r="I108">
-        <v>2.256313319322656</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>2.2563133193226559</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3637,25 +3654,25 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>3.246639578172018</v>
+        <v>3.2466395781720179</v>
       </c>
       <c r="E109">
         <v>1.923981073880398</v>
       </c>
       <c r="F109">
-        <v>0.1708757672722115</v>
+        <v>0.17087576727221149</v>
       </c>
       <c r="G109">
-        <v>0.02256313319322656</v>
+        <v>2.2563133193226559E-2</v>
       </c>
       <c r="H109">
-        <v>17.08757672722115</v>
+        <v>17.087576727221151</v>
       </c>
       <c r="I109">
-        <v>2.256313319322656</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>2.2563133193226559</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3666,25 +3683,25 @@
         <v>2</v>
       </c>
       <c r="D110">
-        <v>3.246639578172018</v>
+        <v>3.2466395781720179</v>
       </c>
       <c r="E110">
         <v>1.923981073880398</v>
       </c>
       <c r="F110">
-        <v>0.1708757672722115</v>
+        <v>0.17087576727221149</v>
       </c>
       <c r="G110">
-        <v>0.02256313319322656</v>
+        <v>2.2563133193226559E-2</v>
       </c>
       <c r="H110">
-        <v>17.08757672722115</v>
+        <v>17.087576727221151</v>
       </c>
       <c r="I110">
-        <v>2.256313319322656</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>2.2563133193226559</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3695,25 +3712,25 @@
         <v>2</v>
       </c>
       <c r="D111">
-        <v>3.246639578172018</v>
+        <v>3.2466395781720179</v>
       </c>
       <c r="E111">
         <v>1.923981073880398</v>
       </c>
       <c r="F111">
-        <v>0.1708757672722115</v>
+        <v>0.17087576727221149</v>
       </c>
       <c r="G111">
-        <v>0.02256313319322656</v>
+        <v>2.2563133193226559E-2</v>
       </c>
       <c r="H111">
-        <v>17.08757672722115</v>
+        <v>17.087576727221151</v>
       </c>
       <c r="I111">
-        <v>2.256313319322656</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>2.2563133193226559</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3724,13 +3741,13 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>3.72139871752351</v>
+        <v>3.7213987175235101</v>
       </c>
       <c r="E112">
         <v>10.63566234031939</v>
       </c>
       <c r="F112">
-        <v>0.1958630903959742</v>
+        <v>0.19586309039597419</v>
       </c>
       <c r="G112">
         <v>0.1247277685007669</v>
@@ -3742,7 +3759,7 @@
         <v>12.47277685007669</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3753,25 +3770,25 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>4.543253132650205</v>
+        <v>4.5432531326502046</v>
       </c>
       <c r="E113">
-        <v>7.799286482602618</v>
+        <v>7.7992864826026178</v>
       </c>
       <c r="F113">
         <v>0.2391185859289581</v>
       </c>
       <c r="G113">
-        <v>0.09146469375822686</v>
+        <v>9.1464693758226856E-2</v>
       </c>
       <c r="H113">
-        <v>23.91185859289581</v>
+        <v>23.911858592895811</v>
       </c>
       <c r="I113">
-        <v>9.146469375822686</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>9.1464693758226865</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3782,25 +3799,25 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>4.543253132650205</v>
+        <v>4.5432531326502046</v>
       </c>
       <c r="E114">
-        <v>7.799286482602618</v>
+        <v>7.7992864826026178</v>
       </c>
       <c r="F114">
         <v>0.2391185859289581</v>
       </c>
       <c r="G114">
-        <v>0.09146469375822686</v>
+        <v>9.1464693758226856E-2</v>
       </c>
       <c r="H114">
-        <v>23.91185859289581</v>
+        <v>23.911858592895811</v>
       </c>
       <c r="I114">
-        <v>9.146469375822686</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>9.1464693758226865</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3829,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3858,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3869,25 +3886,25 @@
         <v>1</v>
       </c>
       <c r="D117">
-        <v>4.543253132650205</v>
+        <v>4.5432531326502046</v>
       </c>
       <c r="E117">
-        <v>7.799286482602618</v>
+        <v>7.7992864826026178</v>
       </c>
       <c r="F117">
         <v>0.2391185859289581</v>
       </c>
       <c r="G117">
-        <v>0.09146469375822686</v>
+        <v>9.1464693758226856E-2</v>
       </c>
       <c r="H117">
-        <v>23.91185859289581</v>
+        <v>23.911858592895811</v>
       </c>
       <c r="I117">
-        <v>9.146469375822686</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>9.1464693758226865</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3898,25 +3915,25 @@
         <v>1</v>
       </c>
       <c r="D118">
-        <v>4.543253132650205</v>
+        <v>4.5432531326502046</v>
       </c>
       <c r="E118">
-        <v>7.799286482602618</v>
+        <v>7.7992864826026178</v>
       </c>
       <c r="F118">
         <v>0.2391185859289581</v>
       </c>
       <c r="G118">
-        <v>0.09146469375822686</v>
+        <v>9.1464693758226856E-2</v>
       </c>
       <c r="H118">
-        <v>23.91185859289581</v>
+        <v>23.911858592895811</v>
       </c>
       <c r="I118">
-        <v>9.146469375822686</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>9.1464693758226865</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3927,25 +3944,25 @@
         <v>2</v>
       </c>
       <c r="D119">
-        <v>0.7801216140081357</v>
+        <v>0.78012161400813573</v>
       </c>
       <c r="E119">
         <v>13.70595517668357</v>
       </c>
       <c r="F119">
-        <v>0.04105903231621766</v>
+        <v>4.1059032316217658E-2</v>
       </c>
       <c r="G119">
-        <v>0.1607340614677636</v>
+        <v>0.16073406146776359</v>
       </c>
       <c r="H119">
-        <v>4.105903231621766</v>
+        <v>4.1059032316217658</v>
       </c>
       <c r="I119">
         <v>16.07340614677636</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3956,25 +3973,25 @@
         <v>2</v>
       </c>
       <c r="D120">
-        <v>0.7801216140081357</v>
+        <v>0.78012161400813573</v>
       </c>
       <c r="E120">
         <v>13.70595517668357</v>
       </c>
       <c r="F120">
-        <v>0.04105903231621766</v>
+        <v>4.1059032316217658E-2</v>
       </c>
       <c r="G120">
-        <v>0.1607340614677636</v>
+        <v>0.16073406146776359</v>
       </c>
       <c r="H120">
-        <v>4.105903231621766</v>
+        <v>4.1059032316217658</v>
       </c>
       <c r="I120">
         <v>16.07340614677636</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -4003,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4032,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -4061,7 +4078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4090,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4101,25 +4118,25 @@
         <v>4</v>
       </c>
       <c r="D125">
-        <v>1.267144360171688</v>
+        <v>1.2671443601716881</v>
       </c>
       <c r="E125">
-        <v>4.2612869330042</v>
+        <v>4.2612869330042003</v>
       </c>
       <c r="F125">
-        <v>0.06669180843008887</v>
+        <v>6.6691808430088872E-2</v>
       </c>
       <c r="G125">
-        <v>0.04997345657356866</v>
+        <v>4.9973456573568657E-2</v>
       </c>
       <c r="H125">
-        <v>6.669180843008887</v>
+        <v>6.6691808430088866</v>
       </c>
       <c r="I125">
-        <v>4.997345657356867</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>4.9973456573568669</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4130,25 +4147,25 @@
         <v>4</v>
       </c>
       <c r="D126">
-        <v>1.267144360171688</v>
+        <v>1.2671443601716881</v>
       </c>
       <c r="E126">
-        <v>4.2612869330042</v>
+        <v>4.2612869330042003</v>
       </c>
       <c r="F126">
-        <v>0.06669180843008887</v>
+        <v>6.6691808430088872E-2</v>
       </c>
       <c r="G126">
-        <v>0.04997345657356866</v>
+        <v>4.9973456573568657E-2</v>
       </c>
       <c r="H126">
-        <v>6.669180843008887</v>
+        <v>6.6691808430088866</v>
       </c>
       <c r="I126">
-        <v>4.997345657356867</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>4.9973456573568669</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4159,25 +4176,25 @@
         <v>4</v>
       </c>
       <c r="D127">
-        <v>2.255449641738944</v>
+        <v>2.2554496417389438</v>
       </c>
       <c r="E127">
-        <v>2.929067079134555</v>
+        <v>2.9290670791345552</v>
       </c>
       <c r="F127">
         <v>0.1187078758809971</v>
       </c>
       <c r="G127">
-        <v>0.03435009394615107</v>
+        <v>3.4350093946151072E-2</v>
       </c>
       <c r="H127">
-        <v>11.87078758809971</v>
+        <v>11.870787588099709</v>
       </c>
       <c r="I127">
-        <v>3.435009394615107</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>3.4350093946151068</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4188,25 +4205,25 @@
         <v>4</v>
       </c>
       <c r="D128">
-        <v>2.255449641738944</v>
+        <v>2.2554496417389438</v>
       </c>
       <c r="E128">
-        <v>2.929067079134555</v>
+        <v>2.9290670791345552</v>
       </c>
       <c r="F128">
         <v>0.1187078758809971</v>
       </c>
       <c r="G128">
-        <v>0.03435009394615107</v>
+        <v>3.4350093946151072E-2</v>
       </c>
       <c r="H128">
-        <v>11.87078758809971</v>
+        <v>11.870787588099709</v>
       </c>
       <c r="I128">
-        <v>3.435009394615107</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>3.4350093946151068</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4223,19 +4240,19 @@
         <v>16.5037135255001</v>
       </c>
       <c r="F129">
-        <v>0.05458261851600182</v>
+        <v>5.4582618516001817E-2</v>
       </c>
       <c r="G129">
-        <v>0.1935442564971215</v>
+        <v>0.19354425649712151</v>
       </c>
       <c r="H129">
-        <v>5.458261851600183</v>
+        <v>5.4582618516001826</v>
       </c>
       <c r="I129">
-        <v>19.35442564971215</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>19.354425649712152</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4252,19 +4269,19 @@
         <v>16.5037135255001</v>
       </c>
       <c r="F130">
-        <v>0.05458261851600182</v>
+        <v>5.4582618516001817E-2</v>
       </c>
       <c r="G130">
-        <v>0.1935442564971215</v>
+        <v>0.19354425649712151</v>
       </c>
       <c r="H130">
-        <v>5.458261851600183</v>
+        <v>5.4582618516001826</v>
       </c>
       <c r="I130">
-        <v>19.35442564971215</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>19.354425649712152</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4275,25 +4292,25 @@
         <v>3</v>
       </c>
       <c r="D131">
-        <v>7.349906890469907</v>
+        <v>7.3499068904699074</v>
       </c>
       <c r="E131">
-        <v>4.2612869330042</v>
+        <v>4.2612869330042003</v>
       </c>
       <c r="F131">
-        <v>0.3868372047615741</v>
+        <v>0.38683720476157413</v>
       </c>
       <c r="G131">
-        <v>0.04997345657356866</v>
+        <v>4.9973456573568657E-2</v>
       </c>
       <c r="H131">
-        <v>38.68372047615741</v>
+        <v>38.683720476157411</v>
       </c>
       <c r="I131">
-        <v>4.997345657356867</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>4.9973456573568669</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4307,22 +4324,22 @@
         <v>5.159189358637482</v>
       </c>
       <c r="E132">
-        <v>16.0379044427351</v>
+        <v>16.037904442735101</v>
       </c>
       <c r="F132">
-        <v>0.2715362820335516</v>
+        <v>0.27153628203355162</v>
       </c>
       <c r="G132">
-        <v>0.1880815663907972</v>
+        <v>0.18808156639079721</v>
       </c>
       <c r="H132">
-        <v>27.15362820335516</v>
+        <v>27.153628203355161</v>
       </c>
       <c r="I132">
-        <v>18.80815663907972</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>18.808156639079719</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4336,22 +4353,22 @@
         <v>5.159189358637482</v>
       </c>
       <c r="E133">
-        <v>16.0379044427351</v>
+        <v>16.037904442735101</v>
       </c>
       <c r="F133">
-        <v>0.2715362820335516</v>
+        <v>0.27153628203355162</v>
       </c>
       <c r="G133">
-        <v>0.1880815663907972</v>
+        <v>0.18808156639079721</v>
       </c>
       <c r="H133">
-        <v>27.15362820335516</v>
+        <v>27.153628203355161</v>
       </c>
       <c r="I133">
-        <v>18.80815663907972</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>18.808156639079719</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4365,22 +4382,22 @@
         <v>5.159189358637482</v>
       </c>
       <c r="E134">
-        <v>16.0379044427351</v>
+        <v>16.037904442735101</v>
       </c>
       <c r="F134">
-        <v>0.2715362820335516</v>
+        <v>0.27153628203355162</v>
       </c>
       <c r="G134">
-        <v>0.1880815663907972</v>
+        <v>0.18808156639079721</v>
       </c>
       <c r="H134">
-        <v>27.15362820335516</v>
+        <v>27.153628203355161</v>
       </c>
       <c r="I134">
-        <v>18.80815663907972</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>18.808156639079719</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4394,22 +4411,22 @@
         <v>5.159189358637482</v>
       </c>
       <c r="E135">
-        <v>16.0379044427351</v>
+        <v>16.037904442735101</v>
       </c>
       <c r="F135">
-        <v>0.2715362820335516</v>
+        <v>0.27153628203355162</v>
       </c>
       <c r="G135">
-        <v>0.1880815663907972</v>
+        <v>0.18808156639079721</v>
       </c>
       <c r="H135">
-        <v>27.15362820335516</v>
+        <v>27.153628203355161</v>
       </c>
       <c r="I135">
-        <v>18.80815663907972</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>18.808156639079719</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4420,25 +4437,25 @@
         <v>4</v>
       </c>
       <c r="D136">
-        <v>1.304358275016286</v>
+        <v>1.3043582750162861</v>
       </c>
       <c r="E136">
-        <v>10.5975724117296</v>
+        <v>10.597572411729599</v>
       </c>
       <c r="F136">
-        <v>0.06865043552717293</v>
+        <v>6.8650435527172926E-2</v>
       </c>
       <c r="G136">
-        <v>0.124281075888371</v>
+        <v>0.12428107588837101</v>
       </c>
       <c r="H136">
-        <v>6.865043552717292</v>
+        <v>6.8650435527172924</v>
       </c>
       <c r="I136">
-        <v>12.4281075888371</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>12.428107588837101</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4449,25 +4466,25 @@
         <v>4</v>
       </c>
       <c r="D137">
-        <v>1.304358275016286</v>
+        <v>1.3043582750162861</v>
       </c>
       <c r="E137">
-        <v>10.5975724117296</v>
+        <v>10.597572411729599</v>
       </c>
       <c r="F137">
-        <v>0.06865043552717293</v>
+        <v>6.8650435527172926E-2</v>
       </c>
       <c r="G137">
-        <v>0.124281075888371</v>
+        <v>0.12428107588837101</v>
       </c>
       <c r="H137">
-        <v>6.865043552717292</v>
+        <v>6.8650435527172924</v>
       </c>
       <c r="I137">
-        <v>12.4281075888371</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>12.428107588837101</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4478,25 +4495,25 @@
         <v>3</v>
       </c>
       <c r="D138">
-        <v>0.06373654574646892</v>
+        <v>6.373654574646892E-2</v>
       </c>
       <c r="E138">
-        <v>14.99627776672514</v>
+        <v>14.996277766725139</v>
       </c>
       <c r="F138">
-        <v>0.003354555039287832</v>
+        <v>3.3545550392878321E-3</v>
       </c>
       <c r="G138">
-        <v>0.1758660816609867</v>
+        <v>0.17586608166098669</v>
       </c>
       <c r="H138">
-        <v>0.3354555039287832</v>
+        <v>0.33545550392878321</v>
       </c>
       <c r="I138">
-        <v>17.58660816609867</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>17.586608166098671</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4507,25 +4524,25 @@
         <v>3</v>
       </c>
       <c r="D139">
-        <v>0.06373654574646892</v>
+        <v>6.373654574646892E-2</v>
       </c>
       <c r="E139">
-        <v>14.99627776672514</v>
+        <v>14.996277766725139</v>
       </c>
       <c r="F139">
-        <v>0.003354555039287832</v>
+        <v>3.3545550392878321E-3</v>
       </c>
       <c r="G139">
-        <v>0.1758660816609867</v>
+        <v>0.17586608166098669</v>
       </c>
       <c r="H139">
-        <v>0.3354555039287832</v>
+        <v>0.33545550392878321</v>
       </c>
       <c r="I139">
-        <v>17.58660816609867</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>17.586608166098671</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4536,25 +4553,25 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>0.1265148001779988</v>
+        <v>0.12651480017799879</v>
       </c>
       <c r="E140">
-        <v>6.236956985323864</v>
+        <v>6.2369569853238636</v>
       </c>
       <c r="F140">
-        <v>0.006658673693578865</v>
+        <v>6.6586736935788648E-3</v>
       </c>
       <c r="G140">
-        <v>0.07314276272815134</v>
+        <v>7.3142762728151345E-2</v>
       </c>
       <c r="H140">
-        <v>0.6658673693578865</v>
+        <v>0.66586736935788648</v>
       </c>
       <c r="I140">
-        <v>7.314276272815134</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>7.3142762728151336</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4565,25 +4582,25 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>0.1265148001779988</v>
+        <v>0.12651480017799879</v>
       </c>
       <c r="E141">
-        <v>6.236956985323864</v>
+        <v>6.2369569853238636</v>
       </c>
       <c r="F141">
-        <v>0.006658673693578865</v>
+        <v>6.6586736935788648E-3</v>
       </c>
       <c r="G141">
-        <v>0.07314276272815134</v>
+        <v>7.3142762728151345E-2</v>
       </c>
       <c r="H141">
-        <v>0.6658673693578865</v>
+        <v>0.66586736935788648</v>
       </c>
       <c r="I141">
-        <v>7.314276272815134</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>7.3142762728151336</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4594,16 +4611,16 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>2.35191541955931</v>
+        <v>2.3519154195593099</v>
       </c>
       <c r="E142">
-        <v>3.510645991417597</v>
+        <v>3.5106459914175971</v>
       </c>
       <c r="F142">
         <v>0.123785022082069</v>
       </c>
       <c r="G142">
-        <v>0.04117045337606406</v>
+        <v>4.1170453376064058E-2</v>
       </c>
       <c r="H142">
         <v>12.3785022082069</v>
@@ -4612,7 +4629,7 @@
         <v>4.117045337606406</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4623,16 +4640,16 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>2.35191541955931</v>
+        <v>2.3519154195593099</v>
       </c>
       <c r="E143">
-        <v>3.510645991417597</v>
+        <v>3.5106459914175971</v>
       </c>
       <c r="F143">
         <v>0.123785022082069</v>
       </c>
       <c r="G143">
-        <v>0.04117045337606406</v>
+        <v>4.1170453376064058E-2</v>
       </c>
       <c r="H143">
         <v>12.3785022082069</v>
@@ -4641,7 +4658,7 @@
         <v>4.117045337606406</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4652,16 +4669,16 @@
         <v>0</v>
       </c>
       <c r="D144">
-        <v>3.72139871752351</v>
+        <v>3.7213987175235101</v>
       </c>
       <c r="E144">
-        <v>26.23423530552463</v>
+        <v>26.234235305524631</v>
       </c>
       <c r="F144">
-        <v>0.1958630903959742</v>
+        <v>0.19586309039597419</v>
       </c>
       <c r="G144">
-        <v>0.3076571560172205</v>
+        <v>0.30765715601722049</v>
       </c>
       <c r="H144">
         <v>19.58630903959742</v>
@@ -4670,7 +4687,7 @@
         <v>30.76571560172205</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4681,16 +4698,16 @@
         <v>1</v>
       </c>
       <c r="D145">
-        <v>3.72139871752351</v>
+        <v>3.7213987175235101</v>
       </c>
       <c r="E145">
-        <v>26.23423530552463</v>
+        <v>26.234235305524631</v>
       </c>
       <c r="F145">
-        <v>0.1958630903959742</v>
+        <v>0.19586309039597419</v>
       </c>
       <c r="G145">
-        <v>0.3076571560172205</v>
+        <v>0.30765715601722049</v>
       </c>
       <c r="H145">
         <v>19.58630903959742</v>
@@ -4699,7 +4716,7 @@
         <v>30.76571560172205</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4716,19 +4733,19 @@
         <v>3.214771213836332</v>
       </c>
       <c r="F146">
-        <v>0.4198680694978382</v>
+        <v>0.41986806949783823</v>
       </c>
       <c r="G146">
-        <v>0.03770063649183752</v>
+        <v>3.7700636491837518E-2</v>
       </c>
       <c r="H146">
-        <v>41.98680694978382</v>
+        <v>41.986806949783819</v>
       </c>
       <c r="I146">
         <v>3.770063649183752</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4745,19 +4762,19 @@
         <v>3.214771213836332</v>
       </c>
       <c r="F147">
-        <v>0.4198680694978382</v>
+        <v>0.41986806949783823</v>
       </c>
       <c r="G147">
-        <v>0.03770063649183752</v>
+        <v>3.7700636491837518E-2</v>
       </c>
       <c r="H147">
-        <v>41.98680694978382</v>
+        <v>41.986806949783819</v>
       </c>
       <c r="I147">
         <v>3.770063649183752</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4774,19 +4791,19 @@
         <v>3.56505117707799</v>
       </c>
       <c r="F148">
-        <v>0.8823122117105374</v>
+        <v>0.88231221171053742</v>
       </c>
       <c r="G148">
-        <v>0.04180848015664029</v>
+        <v>4.1808480156640293E-2</v>
       </c>
       <c r="H148">
-        <v>88.23122117105375</v>
+        <v>88.231221171053747</v>
       </c>
       <c r="I148">
-        <v>4.180848015664029</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>4.1808480156640293</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4803,19 +4820,19 @@
         <v>3.56505117707799</v>
       </c>
       <c r="F149">
-        <v>0.8823122117105374</v>
+        <v>0.88231221171053742</v>
       </c>
       <c r="G149">
-        <v>0.04180848015664029</v>
+        <v>4.1808480156640293E-2</v>
       </c>
       <c r="H149">
-        <v>88.23122117105375</v>
+        <v>88.231221171053747</v>
       </c>
       <c r="I149">
-        <v>4.180848015664029</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>4.1808480156640293</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4832,19 +4849,19 @@
         <v>4.963756532073532</v>
       </c>
       <c r="F150">
-        <v>0.5724681249674916</v>
+        <v>0.57246812496749155</v>
       </c>
       <c r="G150">
-        <v>0.05821153923621503</v>
+        <v>5.8211539236215033E-2</v>
       </c>
       <c r="H150">
-        <v>57.24681249674916</v>
+        <v>57.246812496749158</v>
       </c>
       <c r="I150">
-        <v>5.821153923621503</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>5.8211539236215026</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4861,19 +4878,19 @@
         <v>4.963756532073532</v>
       </c>
       <c r="F151">
-        <v>0.5724681249674916</v>
+        <v>0.57246812496749155</v>
       </c>
       <c r="G151">
-        <v>0.05821153923621503</v>
+        <v>5.8211539236215033E-2</v>
       </c>
       <c r="H151">
-        <v>57.24681249674916</v>
+        <v>57.246812496749158</v>
       </c>
       <c r="I151">
-        <v>5.821153923621503</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>5.8211539236215026</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4884,25 +4901,25 @@
         <v>4</v>
       </c>
       <c r="D152">
-        <v>8.917237469701782</v>
+        <v>8.9172374697017815</v>
       </c>
       <c r="E152">
-        <v>9.537677791974389</v>
+        <v>9.5376777919743887</v>
       </c>
       <c r="F152">
-        <v>0.4693282878790411</v>
+        <v>0.46932828787904107</v>
       </c>
       <c r="G152">
-        <v>0.1118513572175479</v>
+        <v>0.11185135721754789</v>
       </c>
       <c r="H152">
-        <v>46.93282878790411</v>
+        <v>46.932828787904107</v>
       </c>
       <c r="I152">
         <v>11.18513572175479</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4913,25 +4930,25 @@
         <v>4</v>
       </c>
       <c r="D153">
-        <v>8.917237469701782</v>
+        <v>8.9172374697017815</v>
       </c>
       <c r="E153">
-        <v>9.537677791974389</v>
+        <v>9.5376777919743887</v>
       </c>
       <c r="F153">
-        <v>0.4693282878790411</v>
+        <v>0.46932828787904107</v>
       </c>
       <c r="G153">
-        <v>0.1118513572175479</v>
+        <v>0.11185135721754789</v>
       </c>
       <c r="H153">
-        <v>46.93282878790411</v>
+        <v>46.932828787904107</v>
       </c>
       <c r="I153">
         <v>11.18513572175479</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -4942,25 +4959,25 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <v>2.184381829873541</v>
+        <v>2.1843818298735411</v>
       </c>
       <c r="E154">
-        <v>5.201027089910056</v>
+        <v>5.2010270899100561</v>
       </c>
       <c r="F154">
         <v>0.1149674647301864</v>
       </c>
       <c r="G154">
-        <v>0.06099408594209255</v>
+        <v>6.0994085942092553E-2</v>
       </c>
       <c r="H154">
-        <v>11.49674647301864</v>
+        <v>11.496746473018639</v>
       </c>
       <c r="I154">
-        <v>6.099408594209255</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>6.0994085942092546</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4971,25 +4988,25 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>2.184381829873541</v>
+        <v>2.1843818298735411</v>
       </c>
       <c r="E155">
-        <v>5.201027089910056</v>
+        <v>5.2010270899100561</v>
       </c>
       <c r="F155">
         <v>0.1149674647301864</v>
       </c>
       <c r="G155">
-        <v>0.06099408594209255</v>
+        <v>6.0994085942092553E-2</v>
       </c>
       <c r="H155">
-        <v>11.49674647301864</v>
+        <v>11.496746473018639</v>
       </c>
       <c r="I155">
-        <v>6.099408594209255</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>6.0994085942092546</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -5000,25 +5017,25 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <v>7.18438182987351</v>
+        <v>7.1843818298735096</v>
       </c>
       <c r="E156">
-        <v>5.201030500373108</v>
+        <v>5.2010305003731077</v>
       </c>
       <c r="F156">
-        <v>0.3781253594670269</v>
+        <v>0.37812535946702691</v>
       </c>
       <c r="G156">
-        <v>0.06099412593766895</v>
+        <v>6.0994125937668953E-2</v>
       </c>
       <c r="H156">
-        <v>37.81253594670269</v>
+        <v>37.812535946702688</v>
       </c>
       <c r="I156">
-        <v>6.099412593766895</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>6.0994125937668953</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -5029,25 +5046,25 @@
         <v>0</v>
       </c>
       <c r="D157">
-        <v>7.18438182987351</v>
+        <v>7.1843818298735096</v>
       </c>
       <c r="E157">
-        <v>5.201030500373108</v>
+        <v>5.2010305003731077</v>
       </c>
       <c r="F157">
-        <v>0.3781253594670269</v>
+        <v>0.37812535946702691</v>
       </c>
       <c r="G157">
-        <v>0.06099412593766895</v>
+        <v>6.0994125937668953E-2</v>
       </c>
       <c r="H157">
-        <v>37.81253594670269</v>
+        <v>37.812535946702688</v>
       </c>
       <c r="I157">
-        <v>6.099412593766895</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>6.0994125937668953</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -5058,25 +5075,25 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <v>9.184381829873505</v>
+        <v>9.1843818298735052</v>
       </c>
       <c r="E158">
-        <v>5.201031182465741</v>
+        <v>5.2010311824657407</v>
       </c>
       <c r="F158">
-        <v>0.4833885173617634</v>
+        <v>0.48338851736176341</v>
       </c>
       <c r="G158">
-        <v>0.06099413393678454</v>
+        <v>6.0994133936784538E-2</v>
       </c>
       <c r="H158">
-        <v>48.33885173617634</v>
+        <v>48.338851736176338</v>
       </c>
       <c r="I158">
-        <v>6.099413393678454</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>6.0994133936784536</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -5087,25 +5104,25 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>9.184381829873505</v>
+        <v>9.1843818298735052</v>
       </c>
       <c r="E159">
-        <v>5.201031182465741</v>
+        <v>5.2010311824657407</v>
       </c>
       <c r="F159">
-        <v>0.4833885173617634</v>
+        <v>0.48338851736176341</v>
       </c>
       <c r="G159">
-        <v>0.06099413393678454</v>
+        <v>6.0994133936784538E-2</v>
       </c>
       <c r="H159">
-        <v>48.33885173617634</v>
+        <v>48.338851736176338</v>
       </c>
       <c r="I159">
-        <v>6.099413393678454</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>6.0994133936784536</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -5119,22 +5136,22 @@
         <v>10.1843818298735</v>
       </c>
       <c r="E160">
-        <v>5.201031455302768</v>
+        <v>5.2010314553027683</v>
       </c>
       <c r="F160">
-        <v>0.5360200963091317</v>
+        <v>0.53602009630913172</v>
       </c>
       <c r="G160">
-        <v>0.06099413713643043</v>
+        <v>6.0994137136430433E-2</v>
       </c>
       <c r="H160">
-        <v>53.60200963091317</v>
+        <v>53.602009630913173</v>
       </c>
       <c r="I160">
-        <v>6.099413713643043</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>6.0994137136430426</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -5148,22 +5165,22 @@
         <v>10.1843818298735</v>
       </c>
       <c r="E161">
-        <v>5.201031455302768</v>
+        <v>5.2010314553027683</v>
       </c>
       <c r="F161">
-        <v>0.5360200963091317</v>
+        <v>0.53602009630913172</v>
       </c>
       <c r="G161">
-        <v>0.06099413713643043</v>
+        <v>6.0994137136430433E-2</v>
       </c>
       <c r="H161">
-        <v>53.60200963091317</v>
+        <v>53.602009630913173</v>
       </c>
       <c r="I161">
-        <v>6.099413713643043</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>6.0994137136430426</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -5174,25 +5191,25 @@
         <v>5</v>
       </c>
       <c r="D162">
-        <v>4.026297590440446</v>
+        <v>4.0262975904404463</v>
       </c>
       <c r="E162">
-        <v>15.98721249581665</v>
+        <v>15.987212495816649</v>
       </c>
       <c r="F162">
         <v>0.2119103994968656</v>
       </c>
       <c r="G162">
-        <v>0.1874870859327135</v>
+        <v>0.18748708593271349</v>
       </c>
       <c r="H162">
-        <v>21.19103994968656</v>
+        <v>21.191039949686559</v>
       </c>
       <c r="I162">
-        <v>18.74870859327135</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>18.748708593271349</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -5203,25 +5220,25 @@
         <v>5</v>
       </c>
       <c r="D163">
-        <v>4.026297590440446</v>
+        <v>4.0262975904404463</v>
       </c>
       <c r="E163">
-        <v>15.98721249581665</v>
+        <v>15.987212495816649</v>
       </c>
       <c r="F163">
         <v>0.2119103994968656</v>
       </c>
       <c r="G163">
-        <v>0.1874870859327135</v>
+        <v>0.18748708593271349</v>
       </c>
       <c r="H163">
-        <v>21.19103994968656</v>
+        <v>21.191039949686559</v>
       </c>
       <c r="I163">
-        <v>18.74870859327135</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>18.748708593271349</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -5235,22 +5252,22 @@
         <v>14.1843818298735</v>
       </c>
       <c r="E164">
-        <v>5.201032259454067</v>
+        <v>5.2010322594540668</v>
       </c>
       <c r="F164">
-        <v>0.7465464120986052</v>
+        <v>0.74654641209860517</v>
       </c>
       <c r="G164">
-        <v>0.06099414656696656</v>
+        <v>6.0994146566966563E-2</v>
       </c>
       <c r="H164">
-        <v>74.65464120986051</v>
+        <v>74.654641209860515</v>
       </c>
       <c r="I164">
-        <v>6.099414656696656</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>6.0994146566966556</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -5264,22 +5281,22 @@
         <v>14.1843818298735</v>
       </c>
       <c r="E165">
-        <v>5.201032259454067</v>
+        <v>5.2010322594540668</v>
       </c>
       <c r="F165">
-        <v>0.7465464120986052</v>
+        <v>0.74654641209860517</v>
       </c>
       <c r="G165">
-        <v>0.06099414656696656</v>
+        <v>6.0994146566966563E-2</v>
       </c>
       <c r="H165">
-        <v>74.65464120986051</v>
+        <v>74.654641209860515</v>
       </c>
       <c r="I165">
-        <v>6.099414656696656</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>6.0994146566966556</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -5293,22 +5310,22 @@
         <v>7.022715545545239</v>
       </c>
       <c r="E166">
-        <v>16.39743779750019</v>
+        <v>16.397437797500189</v>
       </c>
       <c r="F166">
-        <v>0.3696166076602758</v>
+        <v>0.36961660766027582</v>
       </c>
       <c r="G166">
-        <v>0.1922979274980358</v>
+        <v>0.19229792749803579</v>
       </c>
       <c r="H166">
-        <v>36.96166076602758</v>
+        <v>36.961660766027578</v>
       </c>
       <c r="I166">
-        <v>19.22979274980358</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>19.229792749803579</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -5319,25 +5336,25 @@
         <v>6</v>
       </c>
       <c r="D167">
-        <v>10.01999200639361</v>
+        <v>10.019992006393609</v>
       </c>
       <c r="E167">
         <v>16.70938995736147</v>
       </c>
       <c r="F167">
-        <v>0.5273680003365055</v>
+        <v>0.52736800033650555</v>
       </c>
       <c r="G167">
-        <v>0.1959562889177086</v>
+        <v>0.19595628891770861</v>
       </c>
       <c r="H167">
-        <v>52.73680003365055</v>
+        <v>52.736800033650553</v>
       </c>
       <c r="I167">
-        <v>19.59562889177085</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>19.595628891770851</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -5348,25 +5365,25 @@
         <v>6</v>
       </c>
       <c r="D168">
-        <v>10.01999200639361</v>
+        <v>10.019992006393609</v>
       </c>
       <c r="E168">
         <v>16.70938995736147</v>
       </c>
       <c r="F168">
-        <v>0.5273680003365055</v>
+        <v>0.52736800033650555</v>
       </c>
       <c r="G168">
-        <v>0.1959562889177086</v>
+        <v>0.19595628891770861</v>
       </c>
       <c r="H168">
-        <v>52.73680003365055</v>
+        <v>52.736800033650553</v>
       </c>
       <c r="I168">
-        <v>19.59562889177085</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>19.595628891770851</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -5386,16 +5403,16 @@
         <v>0.582989980042663</v>
       </c>
       <c r="G169">
-        <v>0.1712339899499774</v>
+        <v>0.17123398994997741</v>
       </c>
       <c r="H169">
-        <v>58.2989980042663</v>
+        <v>58.298998004266302</v>
       </c>
       <c r="I169">
-        <v>17.12339899499774</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>17.123398994997739</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -5415,16 +5432,16 @@
         <v>0.582989980042663</v>
       </c>
       <c r="G170">
-        <v>0.1712339899499774</v>
+        <v>0.17123398994997741</v>
       </c>
       <c r="H170">
-        <v>58.2989980042663</v>
+        <v>58.298998004266302</v>
       </c>
       <c r="I170">
-        <v>17.12339899499774</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>17.123398994997739</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -5438,22 +5455,22 @@
         <v>12.01851217221259</v>
       </c>
       <c r="E171">
-        <v>16.87890360333854</v>
+        <v>16.878903603338539</v>
       </c>
       <c r="F171">
-        <v>0.6325532722217153</v>
+        <v>0.63255327222171531</v>
       </c>
       <c r="G171">
-        <v>0.1979442289365448</v>
+        <v>0.19794422893654481</v>
       </c>
       <c r="H171">
         <v>63.25532722217153</v>
       </c>
       <c r="I171">
-        <v>19.79442289365448</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>19.794422893654481</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -5467,22 +5484,22 @@
         <v>12.01851217221259</v>
       </c>
       <c r="E172">
-        <v>16.87890360333854</v>
+        <v>16.878903603338539</v>
       </c>
       <c r="F172">
-        <v>0.6325532722217153</v>
+        <v>0.63255327222171531</v>
       </c>
       <c r="G172">
-        <v>0.1979442289365448</v>
+        <v>0.19794422893654481</v>
       </c>
       <c r="H172">
         <v>63.25532722217153</v>
       </c>
       <c r="I172">
-        <v>19.79442289365448</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>19.794422893654481</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -5496,22 +5513,22 @@
         <v>12.01851217221259</v>
       </c>
       <c r="E173">
-        <v>16.87890360333854</v>
+        <v>16.878903603338539</v>
       </c>
       <c r="F173">
-        <v>0.6325532722217153</v>
+        <v>0.63255327222171531</v>
       </c>
       <c r="G173">
-        <v>0.1979442289365448</v>
+        <v>0.19794422893654481</v>
       </c>
       <c r="H173">
         <v>63.25532722217153</v>
       </c>
       <c r="I173">
-        <v>19.79442289365448</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>19.794422893654481</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -5525,22 +5542,22 @@
         <v>12.01851217221259</v>
       </c>
       <c r="E174">
-        <v>16.87890360333854</v>
+        <v>16.878903603338539</v>
       </c>
       <c r="F174">
-        <v>0.6325532722217153</v>
+        <v>0.63255327222171531</v>
       </c>
       <c r="G174">
-        <v>0.1979442289365448</v>
+        <v>0.19794422893654481</v>
       </c>
       <c r="H174">
         <v>63.25532722217153</v>
       </c>
       <c r="I174">
-        <v>19.79442289365448</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>19.794422893654481</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -5554,22 +5571,22 @@
         <v>12.01851217221259</v>
       </c>
       <c r="E175">
-        <v>16.87890360333854</v>
+        <v>16.878903603338539</v>
       </c>
       <c r="F175">
-        <v>0.6325532722217153</v>
+        <v>0.63255327222171531</v>
       </c>
       <c r="G175">
-        <v>0.1979442289365448</v>
+        <v>0.19794422893654481</v>
       </c>
       <c r="H175">
         <v>63.25532722217153</v>
       </c>
       <c r="I175">
-        <v>19.79442289365448</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>19.794422893654481</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -5583,22 +5600,22 @@
         <v>12.01851217221259</v>
       </c>
       <c r="E176">
-        <v>16.87890360333854</v>
+        <v>16.878903603338539</v>
       </c>
       <c r="F176">
-        <v>0.6325532722217153</v>
+        <v>0.63255327222171531</v>
       </c>
       <c r="G176">
-        <v>0.1979442289365448</v>
+        <v>0.19794422893654481</v>
       </c>
       <c r="H176">
         <v>63.25532722217153</v>
       </c>
       <c r="I176">
-        <v>19.79442289365448</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>19.794422893654481</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -5612,22 +5629,22 @@
         <v>12.01851217221259</v>
       </c>
       <c r="E177">
-        <v>16.87890360333854</v>
+        <v>16.878903603338539</v>
       </c>
       <c r="F177">
-        <v>0.6325532722217153</v>
+        <v>0.63255327222171531</v>
       </c>
       <c r="G177">
-        <v>0.1979442289365448</v>
+        <v>0.19794422893654481</v>
       </c>
       <c r="H177">
         <v>63.25532722217153</v>
       </c>
       <c r="I177">
-        <v>19.79442289365448</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>19.794422893654481</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -5641,22 +5658,22 @@
         <v>12.01851217221259</v>
       </c>
       <c r="E178">
-        <v>16.87890360333854</v>
+        <v>16.878903603338539</v>
       </c>
       <c r="F178">
-        <v>0.6325532722217153</v>
+        <v>0.63255327222171531</v>
       </c>
       <c r="G178">
-        <v>0.1979442289365448</v>
+        <v>0.19794422893654481</v>
       </c>
       <c r="H178">
         <v>63.25532722217153</v>
       </c>
       <c r="I178">
-        <v>19.79442289365448</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>19.794422893654481</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -5667,25 +5684,25 @@
         <v>3</v>
       </c>
       <c r="D179">
-        <v>21.18438182987349</v>
+        <v>21.184381829873491</v>
       </c>
       <c r="E179">
-        <v>5.201033071337591</v>
+        <v>5.2010330713375907</v>
       </c>
       <c r="F179">
-        <v>1.114967464730184</v>
+        <v>1.1149674647301839</v>
       </c>
       <c r="G179">
-        <v>0.06099415608818082</v>
+        <v>6.0994156088180818E-2</v>
       </c>
       <c r="H179">
         <v>111.4967464730184</v>
       </c>
       <c r="I179">
-        <v>6.099415608818082</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>6.0994156088180818</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5696,25 +5713,25 @@
         <v>2</v>
       </c>
       <c r="D180">
-        <v>21.18438182987349</v>
+        <v>21.184381829873491</v>
       </c>
       <c r="E180">
-        <v>5.201033071337591</v>
+        <v>5.2010330713375907</v>
       </c>
       <c r="F180">
-        <v>1.114967464730184</v>
+        <v>1.1149674647301839</v>
       </c>
       <c r="G180">
-        <v>0.06099415608818082</v>
+        <v>6.0994156088180818E-2</v>
       </c>
       <c r="H180">
         <v>111.4967464730184</v>
       </c>
       <c r="I180">
-        <v>6.099415608818082</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>6.0994156088180818</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -5725,25 +5742,25 @@
         <v>2</v>
       </c>
       <c r="D181">
-        <v>21.18438182987349</v>
+        <v>21.184381829873491</v>
       </c>
       <c r="E181">
-        <v>5.201033071337591</v>
+        <v>5.2010330713375907</v>
       </c>
       <c r="F181">
-        <v>1.114967464730184</v>
+        <v>1.1149674647301839</v>
       </c>
       <c r="G181">
-        <v>0.06099415608818082</v>
+        <v>6.0994156088180818E-2</v>
       </c>
       <c r="H181">
         <v>111.4967464730184</v>
       </c>
       <c r="I181">
-        <v>6.099415608818082</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>6.0994156088180818</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -5754,25 +5771,25 @@
         <v>2</v>
       </c>
       <c r="D182">
-        <v>21.18438182987349</v>
+        <v>21.184381829873491</v>
       </c>
       <c r="E182">
-        <v>5.201033071337591</v>
+        <v>5.2010330713375907</v>
       </c>
       <c r="F182">
-        <v>1.114967464730184</v>
+        <v>1.1149674647301839</v>
       </c>
       <c r="G182">
-        <v>0.06099415608818082</v>
+        <v>6.0994156088180818E-2</v>
       </c>
       <c r="H182">
         <v>111.4967464730184</v>
       </c>
       <c r="I182">
-        <v>6.099415608818082</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>6.0994156088180818</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -5783,25 +5800,25 @@
         <v>2</v>
       </c>
       <c r="D183">
-        <v>21.18438182987349</v>
+        <v>21.184381829873491</v>
       </c>
       <c r="E183">
-        <v>5.201033071337591</v>
+        <v>5.2010330713375907</v>
       </c>
       <c r="F183">
-        <v>1.114967464730184</v>
+        <v>1.1149674647301839</v>
       </c>
       <c r="G183">
-        <v>0.06099415608818082</v>
+        <v>6.0994156088180818E-2</v>
       </c>
       <c r="H183">
         <v>111.4967464730184</v>
       </c>
       <c r="I183">
-        <v>6.099415608818082</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>6.0994156088180818</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5812,25 +5829,25 @@
         <v>2</v>
       </c>
       <c r="D184">
-        <v>21.18438182987349</v>
+        <v>21.184381829873491</v>
       </c>
       <c r="E184">
-        <v>5.201033071337591</v>
+        <v>5.2010330713375907</v>
       </c>
       <c r="F184">
-        <v>1.114967464730184</v>
+        <v>1.1149674647301839</v>
       </c>
       <c r="G184">
-        <v>0.06099415608818082</v>
+        <v>6.0994156088180818E-2</v>
       </c>
       <c r="H184">
         <v>111.4967464730184</v>
       </c>
       <c r="I184">
-        <v>6.099415608818082</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>6.0994156088180818</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5841,25 +5858,25 @@
         <v>2</v>
       </c>
       <c r="D185">
-        <v>21.18438182987349</v>
+        <v>21.184381829873491</v>
       </c>
       <c r="E185">
-        <v>5.201033071337591</v>
+        <v>5.2010330713375907</v>
       </c>
       <c r="F185">
-        <v>1.114967464730184</v>
+        <v>1.1149674647301839</v>
       </c>
       <c r="G185">
-        <v>0.06099415608818082</v>
+        <v>6.0994156088180818E-2</v>
       </c>
       <c r="H185">
         <v>111.4967464730184</v>
       </c>
       <c r="I185">
-        <v>6.099415608818082</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>6.0994156088180818</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -5870,25 +5887,25 @@
         <v>2</v>
       </c>
       <c r="D186">
-        <v>21.18438182987349</v>
+        <v>21.184381829873491</v>
       </c>
       <c r="E186">
-        <v>5.201033071337591</v>
+        <v>5.2010330713375907</v>
       </c>
       <c r="F186">
-        <v>1.114967464730184</v>
+        <v>1.1149674647301839</v>
       </c>
       <c r="G186">
-        <v>0.06099415608818082</v>
+        <v>6.0994156088180818E-2</v>
       </c>
       <c r="H186">
         <v>111.4967464730184</v>
       </c>
       <c r="I186">
-        <v>6.099415608818082</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>6.0994156088180818</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -5899,25 +5916,25 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>21.18438182987349</v>
+        <v>21.184381829873491</v>
       </c>
       <c r="E187">
-        <v>5.201033071337591</v>
+        <v>5.2010330713375907</v>
       </c>
       <c r="F187">
-        <v>1.114967464730184</v>
+        <v>1.1149674647301839</v>
       </c>
       <c r="G187">
-        <v>0.06099415608818082</v>
+        <v>6.0994156088180818E-2</v>
       </c>
       <c r="H187">
         <v>111.4967464730184</v>
       </c>
       <c r="I187">
-        <v>6.099415608818082</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>6.0994156088180818</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -5928,25 +5945,25 @@
         <v>1</v>
       </c>
       <c r="D188">
-        <v>21.18438182987349</v>
+        <v>21.184381829873491</v>
       </c>
       <c r="E188">
-        <v>5.201033071337591</v>
+        <v>5.2010330713375907</v>
       </c>
       <c r="F188">
-        <v>1.114967464730184</v>
+        <v>1.1149674647301839</v>
       </c>
       <c r="G188">
-        <v>0.06099415608818082</v>
+        <v>6.0994156088180818E-2</v>
       </c>
       <c r="H188">
         <v>111.4967464730184</v>
       </c>
       <c r="I188">
-        <v>6.099415608818082</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>6.0994156088180818</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -5957,25 +5974,25 @@
         <v>1</v>
       </c>
       <c r="D189">
-        <v>22.18438182987349</v>
+        <v>22.184381829873491</v>
       </c>
       <c r="E189">
-        <v>5.201033152955517</v>
+        <v>5.2010331529555174</v>
       </c>
       <c r="F189">
-        <v>1.167599043677552</v>
+        <v>1.1675990436775521</v>
       </c>
       <c r="G189">
-        <v>0.06099415704534006</v>
+        <v>6.0994157045340058E-2</v>
       </c>
       <c r="H189">
         <v>116.7599043677552</v>
       </c>
       <c r="I189">
-        <v>6.099415704534006</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>6.0994157045340058</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -5986,25 +6003,25 @@
         <v>1</v>
       </c>
       <c r="D190">
-        <v>22.18438182987349</v>
+        <v>22.184381829873491</v>
       </c>
       <c r="E190">
-        <v>5.201033152955517</v>
+        <v>5.2010331529555174</v>
       </c>
       <c r="F190">
-        <v>1.167599043677552</v>
+        <v>1.1675990436775521</v>
       </c>
       <c r="G190">
-        <v>0.06099415704534006</v>
+        <v>6.0994157045340058E-2</v>
       </c>
       <c r="H190">
         <v>116.7599043677552</v>
       </c>
       <c r="I190">
-        <v>6.099415704534006</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>6.0994157045340058</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -6015,25 +6032,25 @@
         <v>1</v>
       </c>
       <c r="D191">
-        <v>22.18438182987349</v>
+        <v>22.184381829873491</v>
       </c>
       <c r="E191">
-        <v>5.201033152955517</v>
+        <v>5.2010331529555174</v>
       </c>
       <c r="F191">
-        <v>1.167599043677552</v>
+        <v>1.1675990436775521</v>
       </c>
       <c r="G191">
-        <v>0.06099415704534006</v>
+        <v>6.0994157045340058E-2</v>
       </c>
       <c r="H191">
         <v>116.7599043677552</v>
       </c>
       <c r="I191">
-        <v>6.099415704534006</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>6.0994157045340058</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -6044,25 +6061,25 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>22.18438182987349</v>
+        <v>22.184381829873491</v>
       </c>
       <c r="E192">
-        <v>5.201033152955517</v>
+        <v>5.2010331529555174</v>
       </c>
       <c r="F192">
-        <v>1.167599043677552</v>
+        <v>1.1675990436775521</v>
       </c>
       <c r="G192">
-        <v>0.06099415704534006</v>
+        <v>6.0994157045340058E-2</v>
       </c>
       <c r="H192">
         <v>116.7599043677552</v>
       </c>
       <c r="I192">
-        <v>6.099415704534006</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>6.0994157045340058</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -6073,16 +6090,16 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>17.20709737541871</v>
+        <v>17.207097375418709</v>
       </c>
       <c r="E193">
-        <v>2.5984730725216</v>
+        <v>2.5984730725216001</v>
       </c>
       <c r="F193">
-        <v>0.9056367039694058</v>
+        <v>0.90563670396940577</v>
       </c>
       <c r="G193">
-        <v>0.03047311370691919</v>
+        <v>3.0473113706919189E-2</v>
       </c>
       <c r="H193">
         <v>90.56367039694058</v>
@@ -6091,7 +6108,7 @@
         <v>3.047311370691919</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -6102,16 +6119,16 @@
         <v>0</v>
       </c>
       <c r="D194">
-        <v>17.20709737541871</v>
+        <v>17.207097375418709</v>
       </c>
       <c r="E194">
-        <v>2.5984730725216</v>
+        <v>2.5984730725216001</v>
       </c>
       <c r="F194">
-        <v>0.9056367039694058</v>
+        <v>0.90563670396940577</v>
       </c>
       <c r="G194">
-        <v>0.03047311370691919</v>
+        <v>3.0473113706919189E-2</v>
       </c>
       <c r="H194">
         <v>90.56367039694058</v>
@@ -6120,7 +6137,7 @@
         <v>3.047311370691919</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -6134,22 +6151,22 @@
         <v>15.28413307211525</v>
       </c>
       <c r="E195">
-        <v>0.5095578624782178</v>
+        <v>0.50955786247821777</v>
       </c>
       <c r="F195">
-        <v>0.8044280564271185</v>
+        <v>0.80442805642711845</v>
       </c>
       <c r="G195">
-        <v>0.00597574585157612</v>
+        <v>5.9757458515761197E-3</v>
       </c>
       <c r="H195">
-        <v>80.44280564271185</v>
+        <v>80.442805642711846</v>
       </c>
       <c r="I195">
-        <v>0.597574585157612</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>0.59757458515761197</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -6163,22 +6180,22 @@
         <v>15.28413307211525</v>
       </c>
       <c r="E196">
-        <v>0.5095578624782178</v>
+        <v>0.50955786247821777</v>
       </c>
       <c r="F196">
-        <v>0.8044280564271185</v>
+        <v>0.80442805642711845</v>
       </c>
       <c r="G196">
-        <v>0.00597574585157612</v>
+        <v>5.9757458515761197E-3</v>
       </c>
       <c r="H196">
-        <v>80.44280564271185</v>
+        <v>80.442805642711846</v>
       </c>
       <c r="I196">
-        <v>0.597574585157612</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>0.59757458515761197</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -6192,22 +6209,22 @@
         <v>14.28935500441627</v>
       </c>
       <c r="E197">
-        <v>0.8079706824730977</v>
+        <v>0.80797068247309767</v>
       </c>
       <c r="F197">
         <v>0.7520713160219088</v>
       </c>
       <c r="G197">
-        <v>0.009475327160102798</v>
+        <v>9.4753271601027977E-3</v>
       </c>
       <c r="H197">
-        <v>75.20713160219088</v>
+        <v>75.207131602190884</v>
       </c>
       <c r="I197">
-        <v>0.9475327160102798</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>0.94753271601027977</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -6221,22 +6238,22 @@
         <v>14.28935500441627</v>
       </c>
       <c r="E198">
-        <v>0.8079706824730977</v>
+        <v>0.80797068247309767</v>
       </c>
       <c r="F198">
         <v>0.7520713160219088</v>
       </c>
       <c r="G198">
-        <v>0.009475327160102798</v>
+        <v>9.4753271601027977E-3</v>
       </c>
       <c r="H198">
-        <v>75.20713160219088</v>
+        <v>75.207131602190884</v>
       </c>
       <c r="I198">
-        <v>0.9475327160102798</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>0.94753271601027977</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -6250,22 +6267,22 @@
         <v>14.28935500441627</v>
       </c>
       <c r="E199">
-        <v>0.8079706824730977</v>
+        <v>0.80797068247309767</v>
       </c>
       <c r="F199">
         <v>0.7520713160219088</v>
       </c>
       <c r="G199">
-        <v>0.009475327160102798</v>
+        <v>9.4753271601027977E-3</v>
       </c>
       <c r="H199">
-        <v>75.20713160219088</v>
+        <v>75.207131602190884</v>
       </c>
       <c r="I199">
-        <v>0.9475327160102798</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>0.94753271601027977</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -6279,22 +6296,22 @@
         <v>14.28935500441627</v>
       </c>
       <c r="E200">
-        <v>0.8079706824730977</v>
+        <v>0.80797068247309767</v>
       </c>
       <c r="F200">
         <v>0.7520713160219088</v>
       </c>
       <c r="G200">
-        <v>0.009475327160102798</v>
+        <v>9.4753271601027977E-3</v>
       </c>
       <c r="H200">
-        <v>75.20713160219088</v>
+        <v>75.207131602190884</v>
       </c>
       <c r="I200">
-        <v>0.9475327160102798</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>0.94753271601027977</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -6308,22 +6325,22 @@
         <v>14.28935500441627</v>
       </c>
       <c r="E201">
-        <v>0.8079706824730977</v>
+        <v>0.80797068247309767</v>
       </c>
       <c r="F201">
         <v>0.7520713160219088</v>
       </c>
       <c r="G201">
-        <v>0.009475327160102798</v>
+        <v>9.4753271601027977E-3</v>
       </c>
       <c r="H201">
-        <v>75.20713160219088</v>
+        <v>75.207131602190884</v>
       </c>
       <c r="I201">
-        <v>0.9475327160102798</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>0.94753271601027977</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -6337,22 +6354,22 @@
         <v>14.28935500441627</v>
       </c>
       <c r="E202">
-        <v>0.8079706824730977</v>
+        <v>0.80797068247309767</v>
       </c>
       <c r="F202">
         <v>0.7520713160219088</v>
       </c>
       <c r="G202">
-        <v>0.009475327160102798</v>
+        <v>9.4753271601027977E-3</v>
       </c>
       <c r="H202">
-        <v>75.20713160219088</v>
+        <v>75.207131602190884</v>
       </c>
       <c r="I202">
-        <v>0.9475327160102798</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>0.94753271601027977</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -6366,22 +6383,22 @@
         <v>14.28935500441627</v>
       </c>
       <c r="E203">
-        <v>0.8079706824730977</v>
+        <v>0.80797068247309767</v>
       </c>
       <c r="F203">
         <v>0.7520713160219088</v>
       </c>
       <c r="G203">
-        <v>0.009475327160102798</v>
+        <v>9.4753271601027977E-3</v>
       </c>
       <c r="H203">
-        <v>75.20713160219088</v>
+        <v>75.207131602190884</v>
       </c>
       <c r="I203">
-        <v>0.9475327160102798</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>0.94753271601027977</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -6395,22 +6412,22 @@
         <v>14.28935500441627</v>
       </c>
       <c r="E204">
-        <v>0.8079706824730977</v>
+        <v>0.80797068247309767</v>
       </c>
       <c r="F204">
         <v>0.7520713160219088</v>
       </c>
       <c r="G204">
-        <v>0.009475327160102798</v>
+        <v>9.4753271601027977E-3</v>
       </c>
       <c r="H204">
-        <v>75.20713160219088</v>
+        <v>75.207131602190884</v>
       </c>
       <c r="I204">
-        <v>0.9475327160102798</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>0.94753271601027977</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -6421,25 +6438,25 @@
         <v>2</v>
       </c>
       <c r="D205">
-        <v>0.3615290398286781</v>
+        <v>0.36152903982867812</v>
       </c>
       <c r="E205">
         <v>8.476476015068144</v>
       </c>
       <c r="F205">
-        <v>0.01902784420150938</v>
+        <v>1.9027844201509381E-2</v>
       </c>
       <c r="G205">
-        <v>0.09940630910232273</v>
+        <v>9.9406309102322732E-2</v>
       </c>
       <c r="H205">
-        <v>1.902784420150938</v>
+        <v>1.9027844201509381</v>
       </c>
       <c r="I205">
-        <v>9.940630910232272</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>9.9406309102322723</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -6450,25 +6467,25 @@
         <v>2</v>
       </c>
       <c r="D206">
-        <v>0.3615290398286781</v>
+        <v>0.36152903982867812</v>
       </c>
       <c r="E206">
         <v>8.476476015068144</v>
       </c>
       <c r="F206">
-        <v>0.01902784420150938</v>
+        <v>1.9027844201509381E-2</v>
       </c>
       <c r="G206">
-        <v>0.09940630910232273</v>
+        <v>9.9406309102322732E-2</v>
       </c>
       <c r="H206">
-        <v>1.902784420150938</v>
+        <v>1.9027844201509381</v>
       </c>
       <c r="I206">
-        <v>9.940630910232272</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>9.9406309102322723</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -6479,25 +6496,25 @@
         <v>1</v>
       </c>
       <c r="D207">
-        <v>0.5723018878887958</v>
+        <v>0.57230188788879577</v>
       </c>
       <c r="E207">
         <v>15.39930403104557</v>
       </c>
       <c r="F207">
-        <v>0.03012115199414711</v>
+        <v>3.0121151994147111E-2</v>
       </c>
       <c r="G207">
-        <v>0.1805924978433923</v>
+        <v>0.18059249784339229</v>
       </c>
       <c r="H207">
-        <v>3.012115199414711</v>
+        <v>3.0121151994147111</v>
       </c>
       <c r="I207">
-        <v>18.05924978433923</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>18.059249784339229</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -6508,25 +6525,25 @@
         <v>0</v>
       </c>
       <c r="D208">
-        <v>0.5723018878887958</v>
+        <v>0.57230188788879577</v>
       </c>
       <c r="E208">
         <v>15.39930403104557</v>
       </c>
       <c r="F208">
-        <v>0.03012115199414711</v>
+        <v>3.0121151994147111E-2</v>
       </c>
       <c r="G208">
-        <v>0.1805924978433923</v>
+        <v>0.18059249784339229</v>
       </c>
       <c r="H208">
-        <v>3.012115199414711</v>
+        <v>3.0121151994147111</v>
       </c>
       <c r="I208">
-        <v>18.05924978433923</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>18.059249784339229</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -6537,25 +6554,25 @@
         <v>2</v>
       </c>
       <c r="D209">
-        <v>0.2834013434662532</v>
+        <v>0.28340134346625317</v>
       </c>
       <c r="E209">
-        <v>6.108897198998804</v>
+        <v>6.1088971989988039</v>
       </c>
       <c r="F209">
-        <v>0.0149158601824344</v>
+        <v>1.49158601824344E-2</v>
       </c>
       <c r="G209">
-        <v>0.07164096520281438</v>
+        <v>7.1640965202814377E-2</v>
       </c>
       <c r="H209">
-        <v>1.49158601824344</v>
+        <v>1.4915860182434399</v>
       </c>
       <c r="I209">
-        <v>7.164096520281438</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>7.1640965202814382</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -6566,25 +6583,25 @@
         <v>2</v>
       </c>
       <c r="D210">
-        <v>0.2834013434662532</v>
+        <v>0.28340134346625317</v>
       </c>
       <c r="E210">
-        <v>6.108897198998804</v>
+        <v>6.1088971989988039</v>
       </c>
       <c r="F210">
-        <v>0.0149158601824344</v>
+        <v>1.49158601824344E-2</v>
       </c>
       <c r="G210">
-        <v>0.07164096520281438</v>
+        <v>7.1640965202814377E-2</v>
       </c>
       <c r="H210">
-        <v>1.49158601824344</v>
+        <v>1.4915860182434399</v>
       </c>
       <c r="I210">
-        <v>7.164096520281438</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>7.1640965202814382</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -6598,22 +6615,22 @@
         <v>1.942399274176265</v>
       </c>
       <c r="E211">
-        <v>4.728964998348687</v>
+        <v>4.7289649983486868</v>
       </c>
       <c r="F211">
         <v>0.1022315407461192</v>
       </c>
       <c r="G211">
-        <v>0.05545806482838667</v>
+        <v>5.5458064828386673E-2</v>
       </c>
       <c r="H211">
-        <v>10.22315407461192</v>
+        <v>10.223154074611919</v>
       </c>
       <c r="I211">
-        <v>5.545806482838667</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>5.5458064828386666</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -6627,22 +6644,22 @@
         <v>1.942399274176265</v>
       </c>
       <c r="E212">
-        <v>4.728964998348687</v>
+        <v>4.7289649983486868</v>
       </c>
       <c r="F212">
         <v>0.1022315407461192</v>
       </c>
       <c r="G212">
-        <v>0.05545806482838667</v>
+        <v>5.5458064828386673E-2</v>
       </c>
       <c r="H212">
-        <v>10.22315407461192</v>
+        <v>10.223154074611919</v>
       </c>
       <c r="I212">
-        <v>5.545806482838667</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>5.5458064828386666</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -6653,25 +6670,25 @@
         <v>1</v>
       </c>
       <c r="D213">
-        <v>2.942399274176015</v>
+        <v>2.9423992741760152</v>
       </c>
       <c r="E213">
-        <v>4.728936350458923</v>
+        <v>4.7289363504589232</v>
       </c>
       <c r="F213">
-        <v>0.1548631196934745</v>
+        <v>0.15486311969347449</v>
       </c>
       <c r="G213">
-        <v>0.05545772886554334</v>
+        <v>5.5457728865543343E-2</v>
       </c>
       <c r="H213">
-        <v>15.48631196934745</v>
+        <v>15.486311969347449</v>
       </c>
       <c r="I213">
-        <v>5.545772886554334</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>5.5457728865543343</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -6682,25 +6699,25 @@
         <v>0</v>
       </c>
       <c r="D214">
-        <v>4.543253132650205</v>
+        <v>4.5432531326502046</v>
       </c>
       <c r="E214">
-        <v>7.799286482602618</v>
+        <v>7.7992864826026178</v>
       </c>
       <c r="F214">
         <v>0.2391185859289581</v>
       </c>
       <c r="G214">
-        <v>0.09146469375822686</v>
+        <v>9.1464693758226856E-2</v>
       </c>
       <c r="H214">
-        <v>23.91185859289581</v>
+        <v>23.911858592895811</v>
       </c>
       <c r="I214">
-        <v>9.146469375822686</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>9.1464693758226865</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -6711,25 +6728,25 @@
         <v>1</v>
       </c>
       <c r="D215">
-        <v>4.543253132650205</v>
+        <v>4.5432531326502046</v>
       </c>
       <c r="E215">
-        <v>7.799286482602618</v>
+        <v>7.7992864826026178</v>
       </c>
       <c r="F215">
         <v>0.2391185859289581</v>
       </c>
       <c r="G215">
-        <v>0.09146469375822686</v>
+        <v>9.1464693758226856E-2</v>
       </c>
       <c r="H215">
-        <v>23.91185859289581</v>
+        <v>23.911858592895811</v>
       </c>
       <c r="I215">
-        <v>9.146469375822686</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+        <v>9.1464693758226865</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -6740,25 +6757,25 @@
         <v>1</v>
       </c>
       <c r="D216">
-        <v>4.543253132650205</v>
+        <v>4.5432531326502046</v>
       </c>
       <c r="E216">
-        <v>7.799286482602618</v>
+        <v>7.7992864826026178</v>
       </c>
       <c r="F216">
         <v>0.2391185859289581</v>
       </c>
       <c r="G216">
-        <v>0.09146469375822686</v>
+        <v>9.1464693758226856E-2</v>
       </c>
       <c r="H216">
-        <v>23.91185859289581</v>
+        <v>23.911858592895811</v>
       </c>
       <c r="I216">
-        <v>9.146469375822686</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9">
+        <v>9.1464693758226865</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -6769,13 +6786,13 @@
         <v>1</v>
       </c>
       <c r="D217">
-        <v>3.72139871752351</v>
+        <v>3.7213987175235101</v>
       </c>
       <c r="E217">
         <v>10.63566234031939</v>
       </c>
       <c r="F217">
-        <v>0.1958630903959742</v>
+        <v>0.19586309039597419</v>
       </c>
       <c r="G217">
         <v>0.1247277685007669</v>
@@ -6787,7 +6804,7 @@
         <v>12.47277685007669</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -6798,13 +6815,13 @@
         <v>1</v>
       </c>
       <c r="D218">
-        <v>3.72139871752351</v>
+        <v>3.7213987175235101</v>
       </c>
       <c r="E218">
         <v>10.63566234031939</v>
       </c>
       <c r="F218">
-        <v>0.1958630903959742</v>
+        <v>0.19586309039597419</v>
       </c>
       <c r="G218">
         <v>0.1247277685007669</v>
@@ -6816,7 +6833,7 @@
         <v>12.47277685007669</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -6827,16 +6844,16 @@
         <v>1</v>
       </c>
       <c r="D219">
-        <v>2.35191541955931</v>
+        <v>2.3519154195593099</v>
       </c>
       <c r="E219">
-        <v>3.510645991417597</v>
+        <v>3.5106459914175971</v>
       </c>
       <c r="F219">
         <v>0.123785022082069</v>
       </c>
       <c r="G219">
-        <v>0.04117045337606406</v>
+        <v>4.1170453376064058E-2</v>
       </c>
       <c r="H219">
         <v>12.3785022082069</v>
@@ -6845,7 +6862,7 @@
         <v>4.117045337606406</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -6856,25 +6873,25 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>0.5723018878887958</v>
+        <v>0.57230188788879577</v>
       </c>
       <c r="E220">
         <v>15.39930403104557</v>
       </c>
       <c r="F220">
-        <v>0.03012115199414711</v>
+        <v>3.0121151994147111E-2</v>
       </c>
       <c r="G220">
-        <v>0.1805924978433923</v>
+        <v>0.18059249784339229</v>
       </c>
       <c r="H220">
-        <v>3.012115199414711</v>
+        <v>3.0121151994147111</v>
       </c>
       <c r="I220">
-        <v>18.05924978433923</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9">
+        <v>18.059249784339229</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -6885,25 +6902,25 @@
         <v>1</v>
       </c>
       <c r="D221">
-        <v>0.5723018878887958</v>
+        <v>0.57230188788879577</v>
       </c>
       <c r="E221">
         <v>15.39930403104557</v>
       </c>
       <c r="F221">
-        <v>0.03012115199414711</v>
+        <v>3.0121151994147111E-2</v>
       </c>
       <c r="G221">
-        <v>0.1805924978433923</v>
+        <v>0.18059249784339229</v>
       </c>
       <c r="H221">
-        <v>3.012115199414711</v>
+        <v>3.0121151994147111</v>
       </c>
       <c r="I221">
-        <v>18.05924978433923</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9">
+        <v>18.059249784339229</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -6914,25 +6931,25 @@
         <v>2</v>
       </c>
       <c r="D222">
-        <v>0.1265148001779988</v>
+        <v>0.12651480017799879</v>
       </c>
       <c r="E222">
-        <v>6.236956985323864</v>
+        <v>6.2369569853238636</v>
       </c>
       <c r="F222">
-        <v>0.006658673693578865</v>
+        <v>6.6586736935788648E-3</v>
       </c>
       <c r="G222">
-        <v>0.07314276272815134</v>
+        <v>7.3142762728151345E-2</v>
       </c>
       <c r="H222">
-        <v>0.6658673693578865</v>
+        <v>0.66586736935788648</v>
       </c>
       <c r="I222">
-        <v>7.314276272815134</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9">
+        <v>7.3142762728151336</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -6943,25 +6960,25 @@
         <v>2</v>
       </c>
       <c r="D223">
-        <v>0.1265148001779988</v>
+        <v>0.12651480017799879</v>
       </c>
       <c r="E223">
-        <v>6.236956985323864</v>
+        <v>6.2369569853238636</v>
       </c>
       <c r="F223">
-        <v>0.006658673693578865</v>
+        <v>6.6586736935788648E-3</v>
       </c>
       <c r="G223">
-        <v>0.07314276272815134</v>
+        <v>7.3142762728151345E-2</v>
       </c>
       <c r="H223">
-        <v>0.6658673693578865</v>
+        <v>0.66586736935788648</v>
       </c>
       <c r="I223">
-        <v>7.314276272815134</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9">
+        <v>7.3142762728151336</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -6972,25 +6989,25 @@
         <v>5</v>
       </c>
       <c r="D224">
-        <v>0.3615290398286781</v>
+        <v>0.36152903982867812</v>
       </c>
       <c r="E224">
         <v>8.476476015068144</v>
       </c>
       <c r="F224">
-        <v>0.01902784420150938</v>
+        <v>1.9027844201509381E-2</v>
       </c>
       <c r="G224">
-        <v>0.09940630910232273</v>
+        <v>9.9406309102322732E-2</v>
       </c>
       <c r="H224">
-        <v>1.902784420150938</v>
+        <v>1.9027844201509381</v>
       </c>
       <c r="I224">
-        <v>9.940630910232272</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9">
+        <v>9.9406309102322723</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -7001,25 +7018,25 @@
         <v>5</v>
       </c>
       <c r="D225">
-        <v>0.3615290398286781</v>
+        <v>0.36152903982867812</v>
       </c>
       <c r="E225">
         <v>8.476476015068144</v>
       </c>
       <c r="F225">
-        <v>0.01902784420150938</v>
+        <v>1.9027844201509381E-2</v>
       </c>
       <c r="G225">
-        <v>0.09940630910232273</v>
+        <v>9.9406309102322732E-2</v>
       </c>
       <c r="H225">
-        <v>1.902784420150938</v>
+        <v>1.9027844201509381</v>
       </c>
       <c r="I225">
-        <v>9.940630910232272</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9">
+        <v>9.9406309102322723</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -7030,25 +7047,25 @@
         <v>5</v>
       </c>
       <c r="D226">
-        <v>0.3615290398286781</v>
+        <v>0.36152903982867812</v>
       </c>
       <c r="E226">
         <v>8.476476015068144</v>
       </c>
       <c r="F226">
-        <v>0.01902784420150938</v>
+        <v>1.9027844201509381E-2</v>
       </c>
       <c r="G226">
-        <v>0.09940630910232273</v>
+        <v>9.9406309102322732E-2</v>
       </c>
       <c r="H226">
-        <v>1.902784420150938</v>
+        <v>1.9027844201509381</v>
       </c>
       <c r="I226">
-        <v>9.940630910232272</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9">
+        <v>9.9406309102322723</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -7059,25 +7076,25 @@
         <v>5</v>
       </c>
       <c r="D227">
-        <v>0.3615290398286781</v>
+        <v>0.36152903982867812</v>
       </c>
       <c r="E227">
         <v>8.476476015068144</v>
       </c>
       <c r="F227">
-        <v>0.01902784420150938</v>
+        <v>1.9027844201509381E-2</v>
       </c>
       <c r="G227">
-        <v>0.09940630910232273</v>
+        <v>9.9406309102322732E-2</v>
       </c>
       <c r="H227">
-        <v>1.902784420150938</v>
+        <v>1.9027844201509381</v>
       </c>
       <c r="I227">
-        <v>9.940630910232272</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9">
+        <v>9.9406309102322723</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -7088,25 +7105,25 @@
         <v>5</v>
       </c>
       <c r="D228">
-        <v>1.304358275016286</v>
+        <v>1.3043582750162861</v>
       </c>
       <c r="E228">
-        <v>10.5975724117296</v>
+        <v>10.597572411729599</v>
       </c>
       <c r="F228">
-        <v>0.06865043552717293</v>
+        <v>6.8650435527172926E-2</v>
       </c>
       <c r="G228">
-        <v>0.124281075888371</v>
+        <v>0.12428107588837101</v>
       </c>
       <c r="H228">
-        <v>6.865043552717292</v>
+        <v>6.8650435527172924</v>
       </c>
       <c r="I228">
-        <v>12.4281075888371</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9">
+        <v>12.428107588837101</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -7117,25 +7134,25 @@
         <v>4</v>
       </c>
       <c r="D229">
-        <v>1.304358275016286</v>
+        <v>1.3043582750162861</v>
       </c>
       <c r="E229">
-        <v>10.5975724117296</v>
+        <v>10.597572411729599</v>
       </c>
       <c r="F229">
-        <v>0.06865043552717293</v>
+        <v>6.8650435527172926E-2</v>
       </c>
       <c r="G229">
-        <v>0.124281075888371</v>
+        <v>0.12428107588837101</v>
       </c>
       <c r="H229">
-        <v>6.865043552717292</v>
+        <v>6.8650435527172924</v>
       </c>
       <c r="I229">
-        <v>12.4281075888371</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9">
+        <v>12.428107588837101</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -7146,25 +7163,25 @@
         <v>4</v>
       </c>
       <c r="D230">
-        <v>0.3615290398286781</v>
+        <v>0.36152903982867812</v>
       </c>
       <c r="E230">
         <v>8.476476015068144</v>
       </c>
       <c r="F230">
-        <v>0.01902784420150938</v>
+        <v>1.9027844201509381E-2</v>
       </c>
       <c r="G230">
-        <v>0.09940630910232273</v>
+        <v>9.9406309102322732E-2</v>
       </c>
       <c r="H230">
-        <v>1.902784420150938</v>
+        <v>1.9027844201509381</v>
       </c>
       <c r="I230">
-        <v>9.940630910232272</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9">
+        <v>9.9406309102322723</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -7175,25 +7192,25 @@
         <v>4</v>
       </c>
       <c r="D231">
-        <v>0.3615290398286781</v>
+        <v>0.36152903982867812</v>
       </c>
       <c r="E231">
         <v>8.476476015068144</v>
       </c>
       <c r="F231">
-        <v>0.01902784420150938</v>
+        <v>1.9027844201509381E-2</v>
       </c>
       <c r="G231">
-        <v>0.09940630910232273</v>
+        <v>9.9406309102322732E-2</v>
       </c>
       <c r="H231">
-        <v>1.902784420150938</v>
+        <v>1.9027844201509381</v>
       </c>
       <c r="I231">
-        <v>9.940630910232272</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9">
+        <v>9.9406309102322723</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -7204,25 +7221,25 @@
         <v>4</v>
       </c>
       <c r="D232">
-        <v>0.3615290398286781</v>
+        <v>0.36152903982867812</v>
       </c>
       <c r="E232">
         <v>8.476476015068144</v>
       </c>
       <c r="F232">
-        <v>0.01902784420150938</v>
+        <v>1.9027844201509381E-2</v>
       </c>
       <c r="G232">
-        <v>0.09940630910232273</v>
+        <v>9.9406309102322732E-2</v>
       </c>
       <c r="H232">
-        <v>1.902784420150938</v>
+        <v>1.9027844201509381</v>
       </c>
       <c r="I232">
-        <v>9.940630910232272</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9">
+        <v>9.9406309102322723</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -7233,25 +7250,25 @@
         <v>4</v>
       </c>
       <c r="D233">
-        <v>0.3615290398286781</v>
+        <v>0.36152903982867812</v>
       </c>
       <c r="E233">
         <v>8.476476015068144</v>
       </c>
       <c r="F233">
-        <v>0.01902784420150938</v>
+        <v>1.9027844201509381E-2</v>
       </c>
       <c r="G233">
-        <v>0.09940630910232273</v>
+        <v>9.9406309102322732E-2</v>
       </c>
       <c r="H233">
-        <v>1.902784420150938</v>
+        <v>1.9027844201509381</v>
       </c>
       <c r="I233">
-        <v>9.940630910232272</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9">
+        <v>9.9406309102322723</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -7262,25 +7279,25 @@
         <v>4</v>
       </c>
       <c r="D234">
-        <v>1.474270772989483</v>
+        <v>1.4742707729894831</v>
       </c>
       <c r="E234">
         <v>2.467470057573621</v>
       </c>
       <c r="F234">
-        <v>0.07759319857839386</v>
+        <v>7.7593198578393863E-2</v>
       </c>
       <c r="G234">
-        <v>0.02893680001074339</v>
+        <v>2.8936800010743391E-2</v>
       </c>
       <c r="H234">
-        <v>7.759319857839387</v>
+        <v>7.7593198578393867</v>
       </c>
       <c r="I234">
-        <v>2.893680001074339</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9">
+        <v>2.8936800010743391</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -7291,25 +7308,25 @@
         <v>4</v>
       </c>
       <c r="D235">
-        <v>1.474270772989483</v>
+        <v>1.4742707729894831</v>
       </c>
       <c r="E235">
         <v>2.467470057573621</v>
       </c>
       <c r="F235">
-        <v>0.07759319857839386</v>
+        <v>7.7593198578393863E-2</v>
       </c>
       <c r="G235">
-        <v>0.02893680001074339</v>
+        <v>2.8936800010743391E-2</v>
       </c>
       <c r="H235">
-        <v>7.759319857839387</v>
+        <v>7.7593198578393867</v>
       </c>
       <c r="I235">
-        <v>2.893680001074339</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9">
+        <v>2.8936800010743391</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -7320,25 +7337,25 @@
         <v>0</v>
       </c>
       <c r="D236">
-        <v>3.129039570277109</v>
+        <v>3.1290395702771092</v>
       </c>
       <c r="E236">
-        <v>7.799286482602618</v>
+        <v>7.7992864826026178</v>
       </c>
       <c r="F236">
         <v>0.1646862931724794</v>
       </c>
       <c r="G236">
-        <v>0.09146469375822686</v>
+        <v>9.1464693758226856E-2</v>
       </c>
       <c r="H236">
-        <v>16.46862931724794</v>
+        <v>16.468629317247942</v>
       </c>
       <c r="I236">
-        <v>9.146469375822686</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9">
+        <v>9.1464693758226865</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -7349,25 +7366,25 @@
         <v>0</v>
       </c>
       <c r="D237">
-        <v>3.129039570277109</v>
+        <v>3.1290395702771092</v>
       </c>
       <c r="E237">
-        <v>7.799286482602618</v>
+        <v>7.7992864826026178</v>
       </c>
       <c r="F237">
         <v>0.1646862931724794</v>
       </c>
       <c r="G237">
-        <v>0.09146469375822686</v>
+        <v>9.1464693758226856E-2</v>
       </c>
       <c r="H237">
-        <v>16.46862931724794</v>
+        <v>16.468629317247942</v>
       </c>
       <c r="I237">
-        <v>9.146469375822686</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9">
+        <v>9.1464693758226865</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -7378,25 +7395,25 @@
         <v>0</v>
       </c>
       <c r="D238">
-        <v>4.543253132650205</v>
+        <v>4.5432531326502046</v>
       </c>
       <c r="E238">
-        <v>7.799286482602618</v>
+        <v>7.7992864826026178</v>
       </c>
       <c r="F238">
         <v>0.2391185859289581</v>
       </c>
       <c r="G238">
-        <v>0.09146469375822686</v>
+        <v>9.1464693758226856E-2</v>
       </c>
       <c r="H238">
-        <v>23.91185859289581</v>
+        <v>23.911858592895811</v>
       </c>
       <c r="I238">
-        <v>9.146469375822686</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9">
+        <v>9.1464693758226865</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -7407,25 +7424,25 @@
         <v>0</v>
       </c>
       <c r="D239">
-        <v>4.543253132650205</v>
+        <v>4.5432531326502046</v>
       </c>
       <c r="E239">
-        <v>7.799286482602618</v>
+        <v>7.7992864826026178</v>
       </c>
       <c r="F239">
         <v>0.2391185859289581</v>
       </c>
       <c r="G239">
-        <v>0.09146469375822686</v>
+        <v>9.1464693758226856E-2</v>
       </c>
       <c r="H239">
-        <v>23.91185859289581</v>
+        <v>23.911858592895811</v>
       </c>
       <c r="I239">
-        <v>9.146469375822686</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9">
+        <v>9.1464693758226865</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -7439,22 +7456,22 @@
         <v>11.83772233983162</v>
       </c>
       <c r="E240">
-        <v>0.56505117707799</v>
+        <v>0.56505117707799002</v>
       </c>
       <c r="F240">
-        <v>0.6230380178858748</v>
+        <v>0.62303801788587476</v>
       </c>
       <c r="G240">
-        <v>0.006626533463599316</v>
+        <v>6.6265334635993156E-3</v>
       </c>
       <c r="H240">
-        <v>62.30380178858748</v>
+        <v>62.303801788587478</v>
       </c>
       <c r="I240">
-        <v>0.6626533463599316</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9">
+        <v>0.66265334635993156</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -7468,22 +7485,22 @@
         <v>11.83772233983162</v>
       </c>
       <c r="E241">
-        <v>0.56505117707799</v>
+        <v>0.56505117707799002</v>
       </c>
       <c r="F241">
-        <v>0.6230380178858748</v>
+        <v>0.62303801788587476</v>
       </c>
       <c r="G241">
-        <v>0.006626533463599316</v>
+        <v>6.6265334635993156E-3</v>
       </c>
       <c r="H241">
-        <v>62.30380178858748</v>
+        <v>62.303801788587478</v>
       </c>
       <c r="I241">
-        <v>0.6626533463599316</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9">
+        <v>0.66265334635993156</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -7494,25 +7511,25 @@
         <v>2</v>
       </c>
       <c r="D242">
-        <v>2.184381829873541</v>
+        <v>2.1843818298735411</v>
       </c>
       <c r="E242">
-        <v>5.201027089910056</v>
+        <v>5.2010270899100561</v>
       </c>
       <c r="F242">
         <v>0.1149674647301864</v>
       </c>
       <c r="G242">
-        <v>0.06099408594209255</v>
+        <v>6.0994085942092553E-2</v>
       </c>
       <c r="H242">
-        <v>11.49674647301864</v>
+        <v>11.496746473018639</v>
       </c>
       <c r="I242">
-        <v>6.099408594209255</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9">
+        <v>6.0994085942092546</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -7523,25 +7540,25 @@
         <v>1</v>
       </c>
       <c r="D243">
-        <v>2.184381829873541</v>
+        <v>2.1843818298735411</v>
       </c>
       <c r="E243">
-        <v>5.201027089910056</v>
+        <v>5.2010270899100561</v>
       </c>
       <c r="F243">
         <v>0.1149674647301864</v>
       </c>
       <c r="G243">
-        <v>0.06099408594209255</v>
+        <v>6.0994085942092553E-2</v>
       </c>
       <c r="H243">
-        <v>11.49674647301864</v>
+        <v>11.496746473018639</v>
       </c>
       <c r="I243">
-        <v>6.099408594209255</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9">
+        <v>6.0994085942092546</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -7552,25 +7569,25 @@
         <v>3</v>
       </c>
       <c r="D244">
-        <v>4.95012437887911</v>
+        <v>4.9501243788791101</v>
       </c>
       <c r="E244">
-        <v>13.28940686250037</v>
+        <v>13.289406862500369</v>
       </c>
       <c r="F244">
-        <v>0.2605328620462689</v>
+        <v>0.26053286204626891</v>
       </c>
       <c r="G244">
-        <v>0.1558490679395405</v>
+        <v>0.15584906793954051</v>
       </c>
       <c r="H244">
         <v>26.05328620462689</v>
       </c>
       <c r="I244">
-        <v>15.58490679395405</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9">
+        <v>15.584906793954049</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -7581,25 +7598,25 @@
         <v>3</v>
       </c>
       <c r="D245">
-        <v>4.95012437887911</v>
+        <v>4.9501243788791101</v>
       </c>
       <c r="E245">
-        <v>13.28940686250037</v>
+        <v>13.289406862500369</v>
       </c>
       <c r="F245">
-        <v>0.2605328620462689</v>
+        <v>0.26053286204626891</v>
       </c>
       <c r="G245">
-        <v>0.1558490679395405</v>
+        <v>0.15584906793954051</v>
       </c>
       <c r="H245">
         <v>26.05328620462689</v>
       </c>
       <c r="I245">
-        <v>15.58490679395405</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9">
+        <v>15.584906793954049</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -7610,25 +7627,25 @@
         <v>1</v>
       </c>
       <c r="D246">
-        <v>9.184381829873505</v>
+        <v>9.1843818298735052</v>
       </c>
       <c r="E246">
-        <v>5.201031182465741</v>
+        <v>5.2010311824657407</v>
       </c>
       <c r="F246">
-        <v>0.4833885173617634</v>
+        <v>0.48338851736176341</v>
       </c>
       <c r="G246">
-        <v>0.06099413393678454</v>
+        <v>6.0994133936784538E-2</v>
       </c>
       <c r="H246">
-        <v>48.33885173617634</v>
+        <v>48.338851736176338</v>
       </c>
       <c r="I246">
-        <v>6.099413393678454</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9">
+        <v>6.0994133936784536</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -7639,25 +7656,25 @@
         <v>1</v>
       </c>
       <c r="D247">
-        <v>9.184381829873505</v>
+        <v>9.1843818298735052</v>
       </c>
       <c r="E247">
-        <v>5.201031182465741</v>
+        <v>5.2010311824657407</v>
       </c>
       <c r="F247">
-        <v>0.4833885173617634</v>
+        <v>0.48338851736176341</v>
       </c>
       <c r="G247">
-        <v>0.06099413393678454</v>
+        <v>6.0994133936784538E-2</v>
       </c>
       <c r="H247">
-        <v>48.33885173617634</v>
+        <v>48.338851736176338</v>
       </c>
       <c r="I247">
-        <v>6.099413393678454</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9">
+        <v>6.0994133936784536</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -7671,22 +7688,22 @@
         <v>10.1843818298735</v>
       </c>
       <c r="E248">
-        <v>5.201031455302768</v>
+        <v>5.2010314553027683</v>
       </c>
       <c r="F248">
-        <v>0.5360200963091317</v>
+        <v>0.53602009630913172</v>
       </c>
       <c r="G248">
-        <v>0.06099413713643043</v>
+        <v>6.0994137136430433E-2</v>
       </c>
       <c r="H248">
-        <v>53.60200963091317</v>
+        <v>53.602009630913173</v>
       </c>
       <c r="I248">
-        <v>6.099413713643043</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9">
+        <v>6.0994137136430426</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -7700,22 +7717,22 @@
         <v>10.1843818298735</v>
       </c>
       <c r="E249">
-        <v>5.201031455302768</v>
+        <v>5.2010314553027683</v>
       </c>
       <c r="F249">
-        <v>0.5360200963091317</v>
+        <v>0.53602009630913172</v>
       </c>
       <c r="G249">
-        <v>0.06099413713643043</v>
+        <v>6.0994137136430433E-2</v>
       </c>
       <c r="H249">
-        <v>53.60200963091317</v>
+        <v>53.602009630913173</v>
       </c>
       <c r="I249">
-        <v>6.099413713643043</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9">
+        <v>6.0994137136430426</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -7726,25 +7743,25 @@
         <v>0</v>
       </c>
       <c r="D250">
-        <v>9.184381829873505</v>
+        <v>9.1843818298735052</v>
       </c>
       <c r="E250">
-        <v>5.201031182465741</v>
+        <v>5.2010311824657407</v>
       </c>
       <c r="F250">
-        <v>0.4833885173617634</v>
+        <v>0.48338851736176341</v>
       </c>
       <c r="G250">
-        <v>0.06099413393678454</v>
+        <v>6.0994133936784538E-2</v>
       </c>
       <c r="H250">
-        <v>48.33885173617634</v>
+        <v>48.338851736176338</v>
       </c>
       <c r="I250">
-        <v>6.099413393678454</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9">
+        <v>6.0994133936784536</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -7755,25 +7772,25 @@
         <v>0</v>
       </c>
       <c r="D251">
-        <v>9.184381829873505</v>
+        <v>9.1843818298735052</v>
       </c>
       <c r="E251">
-        <v>5.201031182465741</v>
+        <v>5.2010311824657407</v>
       </c>
       <c r="F251">
-        <v>0.4833885173617634</v>
+        <v>0.48338851736176341</v>
       </c>
       <c r="G251">
-        <v>0.06099413393678454</v>
+        <v>6.0994133936784538E-2</v>
       </c>
       <c r="H251">
-        <v>48.33885173617634</v>
+        <v>48.338851736176338</v>
       </c>
       <c r="I251">
-        <v>6.099413393678454</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9">
+        <v>6.0994133936784536</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -7787,22 +7804,22 @@
         <v>11.1843818298735</v>
       </c>
       <c r="E252">
-        <v>5.201031694035194</v>
+        <v>5.2010316940351942</v>
       </c>
       <c r="F252">
-        <v>0.5886516752565001</v>
+        <v>0.58865167525650008</v>
       </c>
       <c r="G252">
-        <v>0.06099413993612113</v>
+        <v>6.0994139936121128E-2</v>
       </c>
       <c r="H252">
-        <v>58.86516752565001</v>
+        <v>58.865167525650008</v>
       </c>
       <c r="I252">
-        <v>6.099413993612113</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9">
+        <v>6.0994139936121128</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -7816,22 +7833,22 @@
         <v>11.1843818298735</v>
       </c>
       <c r="E253">
-        <v>5.201031694035194</v>
+        <v>5.2010316940351942</v>
       </c>
       <c r="F253">
-        <v>0.5886516752565001</v>
+        <v>0.58865167525650008</v>
       </c>
       <c r="G253">
-        <v>0.06099413993612113</v>
+        <v>6.0994139936121128E-2</v>
       </c>
       <c r="H253">
-        <v>58.86516752565001</v>
+        <v>58.865167525650008</v>
       </c>
       <c r="I253">
-        <v>6.099413993612113</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9">
+        <v>6.0994139936121128</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -7845,22 +7862,22 @@
         <v>12.1843818298735</v>
       </c>
       <c r="E254">
-        <v>5.201031904681443</v>
+        <v>5.2010319046814431</v>
       </c>
       <c r="F254">
-        <v>0.6412832542038682</v>
+        <v>0.64128325420386822</v>
       </c>
       <c r="G254">
-        <v>0.06099414240643597</v>
+        <v>6.0994142406435969E-2</v>
       </c>
       <c r="H254">
         <v>64.12832542038683</v>
       </c>
       <c r="I254">
-        <v>6.099414240643597</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9">
+        <v>6.0994142406435969</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -7874,22 +7891,22 @@
         <v>12.1843818298735</v>
       </c>
       <c r="E255">
-        <v>5.201031904681443</v>
+        <v>5.2010319046814431</v>
       </c>
       <c r="F255">
-        <v>0.6412832542038682</v>
+        <v>0.64128325420386822</v>
       </c>
       <c r="G255">
-        <v>0.06099414240643597</v>
+        <v>6.0994142406435969E-2</v>
       </c>
       <c r="H255">
         <v>64.12832542038683</v>
       </c>
       <c r="I255">
-        <v>6.099414240643597</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9">
+        <v>6.0994142406435969</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -7903,22 +7920,22 @@
         <v>13.1843818298735</v>
       </c>
       <c r="E256">
-        <v>5.201032091922556</v>
+        <v>5.2010320919225563</v>
       </c>
       <c r="F256">
         <v>0.6939148331512367</v>
       </c>
       <c r="G256">
-        <v>0.0609941446022717</v>
+        <v>6.0994144602271698E-2</v>
       </c>
       <c r="H256">
-        <v>69.39148331512366</v>
+        <v>69.391483315123665</v>
       </c>
       <c r="I256">
-        <v>6.09941446022717</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9">
+        <v>6.0994144602271696</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -7932,22 +7949,22 @@
         <v>13.1843818298735</v>
       </c>
       <c r="E257">
-        <v>5.201032091922556</v>
+        <v>5.2010320919225563</v>
       </c>
       <c r="F257">
         <v>0.6939148331512367</v>
       </c>
       <c r="G257">
-        <v>0.0609941446022717</v>
+        <v>6.0994144602271698E-2</v>
       </c>
       <c r="H257">
-        <v>69.39148331512366</v>
+        <v>69.391483315123665</v>
       </c>
       <c r="I257">
-        <v>6.09941446022717</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9">
+        <v>6.0994144602271696</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -7958,25 +7975,25 @@
         <v>0</v>
       </c>
       <c r="D258">
-        <v>15.18438182987349</v>
+        <v>15.184381829873489</v>
       </c>
       <c r="E258">
-        <v>5.201032410232443</v>
+        <v>5.2010324102324432</v>
       </c>
       <c r="F258">
-        <v>0.7991779910459733</v>
+        <v>0.79917799104597331</v>
       </c>
       <c r="G258">
-        <v>0.06099414833519212</v>
+        <v>6.0994148335192122E-2</v>
       </c>
       <c r="H258">
-        <v>79.91779910459734</v>
+        <v>79.917799104597336</v>
       </c>
       <c r="I258">
-        <v>6.099414833519212</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9">
+        <v>6.0994148335192122</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -7987,25 +8004,25 @@
         <v>0</v>
       </c>
       <c r="D259">
-        <v>15.18438182987349</v>
+        <v>15.184381829873489</v>
       </c>
       <c r="E259">
-        <v>5.201032410232443</v>
+        <v>5.2010324102324432</v>
       </c>
       <c r="F259">
-        <v>0.7991779910459733</v>
+        <v>0.79917799104597331</v>
       </c>
       <c r="G259">
-        <v>0.06099414833519212</v>
+        <v>6.0994148335192122E-2</v>
       </c>
       <c r="H259">
-        <v>79.91779910459734</v>
+        <v>79.917799104597336</v>
       </c>
       <c r="I259">
-        <v>6.099414833519212</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9">
+        <v>6.0994148335192122</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -8016,25 +8033,25 @@
         <v>0</v>
       </c>
       <c r="D260">
-        <v>15.18438182987349</v>
+        <v>15.184381829873489</v>
       </c>
       <c r="E260">
-        <v>5.201032410232443</v>
+        <v>5.2010324102324432</v>
       </c>
       <c r="F260">
-        <v>0.7991779910459733</v>
+        <v>0.79917799104597331</v>
       </c>
       <c r="G260">
-        <v>0.06099414833519212</v>
+        <v>6.0994148335192122E-2</v>
       </c>
       <c r="H260">
-        <v>79.91779910459734</v>
+        <v>79.917799104597336</v>
       </c>
       <c r="I260">
-        <v>6.099414833519212</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9">
+        <v>6.0994148335192122</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -8045,25 +8062,25 @@
         <v>0</v>
       </c>
       <c r="D261">
-        <v>15.18438182987349</v>
+        <v>15.184381829873489</v>
       </c>
       <c r="E261">
-        <v>5.201032410232443</v>
+        <v>5.2010324102324432</v>
       </c>
       <c r="F261">
-        <v>0.7991779910459733</v>
+        <v>0.79917799104597331</v>
       </c>
       <c r="G261">
-        <v>0.06099414833519212</v>
+        <v>6.0994148335192122E-2</v>
       </c>
       <c r="H261">
-        <v>79.91779910459734</v>
+        <v>79.917799104597336</v>
       </c>
       <c r="I261">
-        <v>6.099414833519212</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9">
+        <v>6.0994148335192122</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -8074,25 +8091,25 @@
         <v>0</v>
       </c>
       <c r="D262">
-        <v>15.18438182987349</v>
+        <v>15.184381829873489</v>
       </c>
       <c r="E262">
-        <v>5.201032410232443</v>
+        <v>5.2010324102324432</v>
       </c>
       <c r="F262">
-        <v>0.7991779910459733</v>
+        <v>0.79917799104597331</v>
       </c>
       <c r="G262">
-        <v>0.06099414833519212</v>
+        <v>6.0994148335192122E-2</v>
       </c>
       <c r="H262">
-        <v>79.91779910459734</v>
+        <v>79.917799104597336</v>
       </c>
       <c r="I262">
-        <v>6.099414833519212</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9">
+        <v>6.0994148335192122</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -8103,25 +8120,25 @@
         <v>0</v>
       </c>
       <c r="D263">
-        <v>15.18438182987349</v>
+        <v>15.184381829873489</v>
       </c>
       <c r="E263">
-        <v>5.201032410232443</v>
+        <v>5.2010324102324432</v>
       </c>
       <c r="F263">
-        <v>0.7991779910459733</v>
+        <v>0.79917799104597331</v>
       </c>
       <c r="G263">
-        <v>0.06099414833519212</v>
+        <v>6.0994148335192122E-2</v>
       </c>
       <c r="H263">
-        <v>79.91779910459734</v>
+        <v>79.917799104597336</v>
       </c>
       <c r="I263">
-        <v>6.099414833519212</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9">
+        <v>6.0994148335192122</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -8132,25 +8149,25 @@
         <v>4</v>
       </c>
       <c r="D264">
-        <v>6.023796041628639</v>
+        <v>6.0237960416286391</v>
       </c>
       <c r="E264">
         <v>16.27368900609375</v>
       </c>
       <c r="F264">
-        <v>0.317041896927823</v>
+        <v>0.31704189692782297</v>
       </c>
       <c r="G264">
-        <v>0.1908466863705059</v>
+        <v>0.19084668637050589</v>
       </c>
       <c r="H264">
         <v>31.7041896927823</v>
       </c>
       <c r="I264">
-        <v>19.08466863705059</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9">
+        <v>19.084668637050591</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -8161,25 +8178,25 @@
         <v>4</v>
       </c>
       <c r="D265">
-        <v>6.023796041628639</v>
+        <v>6.0237960416286391</v>
       </c>
       <c r="E265">
         <v>16.27368900609375</v>
       </c>
       <c r="F265">
-        <v>0.317041896927823</v>
+        <v>0.31704189692782297</v>
       </c>
       <c r="G265">
-        <v>0.1908466863705059</v>
+        <v>0.19084668637050589</v>
       </c>
       <c r="H265">
         <v>31.7041896927823</v>
       </c>
       <c r="I265">
-        <v>19.08466863705059</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9">
+        <v>19.084668637050591</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -8190,25 +8207,25 @@
         <v>4</v>
       </c>
       <c r="D266">
-        <v>6.023796041628639</v>
+        <v>6.0237960416286391</v>
       </c>
       <c r="E266">
         <v>16.27368900609375</v>
       </c>
       <c r="F266">
-        <v>0.317041896927823</v>
+        <v>0.31704189692782297</v>
       </c>
       <c r="G266">
-        <v>0.1908466863705059</v>
+        <v>0.19084668637050589</v>
       </c>
       <c r="H266">
         <v>31.7041896927823</v>
       </c>
       <c r="I266">
-        <v>19.08466863705059</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9">
+        <v>19.084668637050591</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -8219,25 +8236,25 @@
         <v>4</v>
       </c>
       <c r="D267">
-        <v>6.023796041628639</v>
+        <v>6.0237960416286391</v>
       </c>
       <c r="E267">
         <v>16.27368900609375</v>
       </c>
       <c r="F267">
-        <v>0.317041896927823</v>
+        <v>0.31704189692782297</v>
       </c>
       <c r="G267">
-        <v>0.1908466863705059</v>
+        <v>0.19084668637050589</v>
       </c>
       <c r="H267">
         <v>31.7041896927823</v>
       </c>
       <c r="I267">
-        <v>19.08466863705059</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9">
+        <v>19.084668637050591</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -8248,25 +8265,25 @@
         <v>4</v>
       </c>
       <c r="D268">
-        <v>6.023796041628639</v>
+        <v>6.0237960416286391</v>
       </c>
       <c r="E268">
         <v>16.27368900609375</v>
       </c>
       <c r="F268">
-        <v>0.317041896927823</v>
+        <v>0.31704189692782297</v>
       </c>
       <c r="G268">
-        <v>0.1908466863705059</v>
+        <v>0.19084668637050589</v>
       </c>
       <c r="H268">
         <v>31.7041896927823</v>
       </c>
       <c r="I268">
-        <v>19.08466863705059</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9">
+        <v>19.084668637050591</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -8277,25 +8294,25 @@
         <v>4</v>
       </c>
       <c r="D269">
-        <v>6.023796041628639</v>
+        <v>6.0237960416286391</v>
       </c>
       <c r="E269">
         <v>16.27368900609375</v>
       </c>
       <c r="F269">
-        <v>0.317041896927823</v>
+        <v>0.31704189692782297</v>
       </c>
       <c r="G269">
-        <v>0.1908466863705059</v>
+        <v>0.19084668637050589</v>
       </c>
       <c r="H269">
         <v>31.7041896927823</v>
       </c>
       <c r="I269">
-        <v>19.08466863705059</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9">
+        <v>19.084668637050591</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -8306,22 +8323,22 @@
         <v>4</v>
       </c>
       <c r="D270">
-        <v>6.023796041628639</v>
+        <v>6.0237960416286391</v>
       </c>
       <c r="E270">
         <v>16.27368900609375</v>
       </c>
       <c r="F270">
-        <v>0.317041896927823</v>
+        <v>0.31704189692782297</v>
       </c>
       <c r="G270">
-        <v>0.1908466863705059</v>
+        <v>0.19084668637050589</v>
       </c>
       <c r="H270">
         <v>31.7041896927823</v>
       </c>
       <c r="I270">
-        <v>19.08466863705059</v>
+        <v>19.084668637050591</v>
       </c>
     </row>
   </sheetData>
